--- a/config_multi.xls/game_room.xlsx
+++ b/config_multi.xls/game_room.xlsx
@@ -1,40 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FF8F78-EE21-4390-B322-B68B1C7F2485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="game_room" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>芒果</author>
     <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">gameId*100+roomid
@@ -42,14 +35,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>游戏类型
@@ -60,14 +52,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">房间类型
@@ -75,14 +66,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>yons yons:
@@ -90,14 +80,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>yons yons:
@@ -105,28 +94,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>游戏归类：1 大厅游戏  2 小刺激游戏</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">桌费算法
@@ -137,7 +124,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1. </t>
         </r>
@@ -146,7 +133,6 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">数值
@@ -157,7 +143,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2.</t>
         </r>
@@ -166,7 +152,6 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>（赢分的）百分比
@@ -174,14 +159,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">房间桌费
@@ -189,14 +173,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">房间底注
@@ -204,14 +187,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>进入最少金币
@@ -219,14 +201,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">进入最大金币，0表示无上限
@@ -234,42 +215,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>离场条件</t>
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>最少玩家人数</t>
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">最多玩家人数
@@ -277,14 +255,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>微软用户</t>
@@ -294,7 +271,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -304,21 +281,19 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>最小坐庄机器人数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>微软用户</t>
@@ -328,7 +303,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -338,21 +313,19 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>最大坐庄机器人数量</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">挂机次数
@@ -360,14 +333,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>是否需要添加机器人
@@ -376,14 +348,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">广播胜利需要的最小分数
@@ -391,14 +362,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">掉落id
@@ -406,14 +376,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="18"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">房间池数量
@@ -422,14 +391,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="AH1" authorId="1">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">跑马灯开关
@@ -437,14 +405,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>排行榜ID。
@@ -452,14 +419,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>0:无需匹配，上梁山
@@ -469,42 +435,39 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>匹配时间，单位毫秒，只支持类型为1</t>
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>匹配时间，单位毫秒，只支持类型为1</t>
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>1:普通结算
@@ -512,28 +475,26 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>这一时段假的在玩人数</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="12"/>
             <color indexed="0"/>
             <rFont val="微软雅黑"/>
-            <family val="2"/>
             <charset val="134"/>
           </rPr>
           <t>0:没有金币自建房
@@ -541,14 +502,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">是否在游戏中使用背包取钱
@@ -556,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AQ1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -564,7 +524,6 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">ASUS:
@@ -575,7 +534,6 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -740,7 +698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>千及以上</t>
@@ -764,7 +721,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -788,7 +744,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -842,7 +796,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>及以上</t>
@@ -863,7 +816,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>千及以上</t>
@@ -884,7 +836,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -905,7 +856,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -929,7 +879,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -948,7 +897,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -969,7 +917,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -988,7 +935,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -1009,7 +955,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -1028,7 +973,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -1049,7 +993,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -1073,7 +1016,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>千及以上</t>
@@ -1130,7 +1072,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -1163,7 +1104,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -1196,7 +1136,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -1265,7 +1204,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>万及以上</t>
@@ -1374,6 +1312,9 @@
     <t>黄金赛马</t>
   </si>
   <si>
+    <t>德州扑克</t>
+  </si>
+  <si>
     <t>初级场</t>
   </si>
   <si>
@@ -1400,15 +1341,18 @@
   <si>
     <t>2千万-4千万</t>
   </si>
-  <si>
-    <t>德州扑克</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1425,34 +1369,193 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="18"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="0"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
       <color indexed="0"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1460,39 +1563,204 @@
       <sz val="9"/>
       <color indexed="0"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="0"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="18"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1509,9 +1777,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1524,10 +2034,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1601,15 +2158,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1623,21 +2177,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,21 +2213,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1707,21 +2249,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,21 +2285,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,21 +2321,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1833,21 +2357,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1875,21 +2393,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1917,21 +2429,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13406755" cy="10071100"/>
+          <a:ext cx="12965430" cy="10518775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1959,21 +2465,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2001,21 +2501,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2043,21 +2537,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2085,21 +2573,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2127,21 +2609,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2169,21 +2645,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2211,21 +2681,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2253,21 +2717,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2295,21 +2753,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2337,21 +2789,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2379,21 +2825,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2421,21 +2861,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9890760" cy="9637395"/>
+          <a:ext cx="9555480" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2463,21 +2897,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,21 +2933,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2547,21 +2969,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,21 +3005,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2631,21 +3041,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2673,21 +3077,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2715,21 +3113,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2757,21 +3149,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,21 +3185,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2841,21 +3221,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,21 +3257,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2925,21 +3293,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2967,21 +3329,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3009,21 +3365,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,21 +3401,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3093,21 +3437,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10844530" cy="9185275"/>
+          <a:ext cx="10475595" cy="9585325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3135,21 +3473,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3177,21 +3509,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3219,21 +3545,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3261,21 +3581,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3303,21 +3617,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3345,21 +3653,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3387,21 +3689,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3429,21 +3725,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3471,21 +3761,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3513,21 +3797,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,21 +3833,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3597,21 +3869,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3639,21 +3905,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3681,21 +3941,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3723,21 +3977,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3765,21 +4013,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3807,21 +4049,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3849,21 +4085,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3891,21 +4121,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3933,21 +4157,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,21 +4193,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="12522200" cy="9637395"/>
+          <a:ext cx="12080875" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4017,21 +4229,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4059,21 +4265,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4101,21 +4301,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4143,21 +4337,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4185,21 +4373,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4227,21 +4409,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4269,21 +4445,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4311,21 +4481,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4353,21 +4517,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4395,21 +4553,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4437,21 +4589,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4479,21 +4625,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4521,21 +4661,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4563,21 +4697,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4605,21 +4733,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4647,21 +4769,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4689,21 +4805,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4731,21 +4841,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4773,21 +4877,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4815,21 +4913,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4857,21 +4949,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4899,21 +4985,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4941,21 +5021,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9855835" cy="9637395"/>
+          <a:ext cx="9520555" cy="10066020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4983,21 +5057,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5025,21 +5093,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5067,21 +5129,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5109,21 +5165,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5151,21 +5201,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5193,21 +5237,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5235,21 +5273,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5277,21 +5309,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5319,21 +5345,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5361,21 +5381,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5403,21 +5417,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5445,21 +5453,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5487,21 +5489,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5529,21 +5525,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5571,21 +5561,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5613,21 +5597,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5655,21 +5633,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5697,21 +5669,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5739,21 +5705,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5781,21 +5741,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5823,21 +5777,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5865,21 +5813,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5907,21 +5849,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9856470" cy="9638030"/>
+          <a:ext cx="9521190" cy="10066655"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5949,21 +5885,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5991,21 +5921,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6033,21 +5957,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6075,21 +5993,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6117,21 +6029,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6159,21 +6065,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6201,21 +6101,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6243,21 +6137,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6285,21 +6173,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6327,21 +6209,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6369,21 +6245,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6411,21 +6281,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6453,21 +6317,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6495,21 +6353,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6537,21 +6389,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6579,21 +6425,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6621,21 +6461,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6663,21 +6497,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6705,21 +6533,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6747,21 +6569,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6789,21 +6605,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6831,21 +6641,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6873,21 +6677,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6915,21 +6713,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857105" cy="11038840"/>
+          <a:ext cx="9521825" cy="11524615"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6957,21 +6749,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6999,21 +6785,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7041,21 +6821,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7083,21 +6857,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7125,21 +6893,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7167,21 +6929,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7209,21 +6965,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7251,21 +7001,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7293,21 +7037,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7335,21 +7073,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7377,21 +7109,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7419,21 +7145,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7461,21 +7181,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7503,21 +7217,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7545,21 +7253,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7587,21 +7289,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7629,21 +7325,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7671,21 +7361,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7713,21 +7397,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7755,21 +7433,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7797,21 +7469,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7839,21 +7505,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7881,21 +7541,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7923,21 +7577,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7965,21 +7613,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9857740" cy="2764790"/>
+          <a:ext cx="9522460" cy="2879090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8007,21 +7649,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8049,21 +7685,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8091,21 +7721,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8133,21 +7757,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8175,21 +7793,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8217,21 +7829,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8259,21 +7865,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8301,21 +7901,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8343,21 +7937,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8385,21 +7973,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8427,21 +8009,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8469,21 +8045,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8511,21 +8081,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8553,21 +8117,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8595,21 +8153,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8637,21 +8189,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8679,21 +8225,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8721,21 +8261,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8763,21 +8297,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8805,21 +8333,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8847,21 +8369,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8889,21 +8405,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8931,21 +8441,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8973,21 +8477,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9015,21 +8513,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9057,21 +8549,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9099,21 +8585,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9858375" cy="15627985"/>
+          <a:ext cx="9523095" cy="16323310"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9141,21 +8621,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9189,21 +8663,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9237,21 +8705,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9285,21 +8747,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9333,21 +8789,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9381,21 +8831,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9429,21 +8873,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9477,21 +8915,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9525,21 +8957,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9573,21 +8999,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9621,21 +9041,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9669,21 +9083,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9717,21 +9125,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9765,21 +9167,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9813,21 +9209,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9861,21 +9251,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9909,21 +9293,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9957,21 +9335,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10005,21 +9377,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10053,21 +9419,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10101,21 +9461,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10149,21 +9503,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10197,21 +9545,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10245,21 +9587,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10293,21 +9629,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10341,21 +9671,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10389,21 +9713,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10437,21 +9755,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9859010" cy="9142730"/>
+          <a:ext cx="9523730" cy="9542780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10485,21 +9797,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10533,21 +9839,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10581,21 +9881,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10629,21 +9923,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10677,21 +9965,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10725,21 +10007,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10773,21 +10049,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10821,21 +10091,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10869,21 +10133,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10917,21 +10175,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10965,21 +10217,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11013,21 +10259,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11061,21 +10301,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11109,21 +10343,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11157,21 +10385,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11205,21 +10427,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11253,21 +10469,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11301,21 +10511,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11349,21 +10553,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11397,21 +10595,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11445,21 +10637,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11493,21 +10679,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11541,21 +10721,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11589,21 +10763,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11637,21 +10805,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11685,21 +10847,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11733,21 +10889,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11781,21 +10931,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11829,21 +10973,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8721725" cy="9144000"/>
+          <a:ext cx="8420100" cy="9544050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12146,51 +11284,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AQ145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U142" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U124" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V142" sqref="V142"/>
+      <selection pane="bottomRight" activeCell="U149" sqref="U149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="1" max="3" width="6.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="5" max="8" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="11" width="10.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="14.5555555555556" customWidth="1"/>
     <col min="15" max="16" width="12" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.5555555555556" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="23" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" customWidth="1"/>
-    <col min="25" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" customWidth="1"/>
-    <col min="30" max="31" width="14.6640625" customWidth="1"/>
+    <col min="22" max="23" width="17.5555555555556" customWidth="1"/>
+    <col min="24" max="24" width="17.8888888888889" customWidth="1"/>
+    <col min="25" max="28" width="10.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="11.6666666666667" customWidth="1"/>
+    <col min="30" max="31" width="14.6666666666667" customWidth="1"/>
     <col min="32" max="33" width="15" customWidth="1"/>
-    <col min="34" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" customWidth="1"/>
-    <col min="39" max="39" width="10.44140625" customWidth="1"/>
-    <col min="40" max="40" width="15.109375" customWidth="1"/>
-    <col min="41" max="41" width="14.44140625" customWidth="1"/>
-    <col min="42" max="1026" width="10.44140625" customWidth="1"/>
+    <col min="34" max="36" width="10.4444444444444" customWidth="1"/>
+    <col min="37" max="37" width="15.4444444444444" customWidth="1"/>
+    <col min="38" max="38" width="20.6666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.4444444444444" customWidth="1"/>
+    <col min="40" max="40" width="15.1111111111111" customWidth="1"/>
+    <col min="41" max="41" width="14.4444444444444" customWidth="1"/>
+    <col min="42" max="1026" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12321,7 +11460,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>1301</v>
       </c>
@@ -12431,7 +11570,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>1302</v>
       </c>
@@ -12541,7 +11680,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>1303</v>
       </c>
@@ -12651,7 +11790,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>1304</v>
       </c>
@@ -12761,7 +11900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>2301</v>
       </c>
@@ -12871,7 +12010,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>2302</v>
       </c>
@@ -12981,7 +12120,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>2303</v>
       </c>
@@ -13094,7 +12233,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>2304</v>
       </c>
@@ -13207,7 +12346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>3201</v>
       </c>
@@ -13317,7 +12456,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>3202</v>
       </c>
@@ -13427,7 +12566,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>3203</v>
       </c>
@@ -13537,7 +12676,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>3204</v>
       </c>
@@ -13647,7 +12786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:42">
       <c r="A14">
         <v>10101</v>
       </c>
@@ -13749,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:42">
       <c r="A15">
         <v>10102</v>
       </c>
@@ -13851,7 +12990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:42">
       <c r="A16">
         <v>10103</v>
       </c>
@@ -14054,7 +13193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:40">
       <c r="A18">
         <v>5101</v>
       </c>
@@ -14158,7 +13297,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>5102</v>
       </c>
@@ -14262,7 +13401,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>5103</v>
       </c>
@@ -14366,7 +13505,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>5104</v>
       </c>
@@ -14470,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>15001</v>
       </c>
@@ -14574,7 +13713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>5601</v>
       </c>
@@ -14684,7 +13823,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>5602</v>
       </c>
@@ -14794,7 +13933,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>5603</v>
       </c>
@@ -14907,7 +14046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>5604</v>
       </c>
@@ -15020,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:40">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -15130,7 +14269,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:40">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -15240,7 +14379,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:40">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -15350,7 +14489,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:40">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -15460,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:40">
       <c r="A31">
         <v>15901</v>
       </c>
@@ -15570,7 +14709,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:40">
       <c r="A32">
         <v>15902</v>
       </c>
@@ -15680,7 +14819,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:40">
       <c r="A33">
         <v>15903</v>
       </c>
@@ -15790,7 +14929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:40">
       <c r="A34">
         <v>15904</v>
       </c>
@@ -15900,7 +15039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:40">
       <c r="A35">
         <v>10801</v>
       </c>
@@ -16099,7 +15238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:40">
       <c r="A37">
         <v>13501</v>
       </c>
@@ -16203,7 +15342,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:40">
       <c r="A38">
         <v>13502</v>
       </c>
@@ -16307,7 +15446,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:40">
       <c r="A39">
         <v>13503</v>
       </c>
@@ -16411,7 +15550,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:40">
       <c r="A40">
         <v>13504</v>
       </c>
@@ -16515,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:40">
       <c r="A41">
         <v>4101</v>
       </c>
@@ -16619,7 +15758,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:40">
       <c r="A42">
         <v>4102</v>
       </c>
@@ -16723,7 +15862,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:40">
       <c r="A43">
         <v>4103</v>
       </c>
@@ -16827,7 +15966,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:40">
       <c r="A44">
         <v>4104</v>
       </c>
@@ -16931,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:40">
       <c r="A45">
         <v>16301</v>
       </c>
@@ -17041,7 +16180,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:40">
       <c r="A46">
         <v>16302</v>
       </c>
@@ -17151,7 +16290,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:40">
       <c r="A47">
         <v>16303</v>
       </c>
@@ -17261,7 +16400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:40">
       <c r="A48">
         <v>16304</v>
       </c>
@@ -19089,7 +18228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:40">
       <c r="A65">
         <v>14201</v>
       </c>
@@ -19199,7 +18338,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:40">
       <c r="A66">
         <v>14202</v>
       </c>
@@ -19309,7 +18448,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:40">
       <c r="A67">
         <v>14203</v>
       </c>
@@ -19419,7 +18558,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:40">
       <c r="A68">
         <v>14204</v>
       </c>
@@ -19633,7 +18772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:40">
       <c r="A70">
         <v>14301</v>
       </c>
@@ -19731,7 +18870,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:40">
       <c r="A71">
         <v>4301</v>
       </c>
@@ -19823,7 +18962,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:40">
       <c r="A72">
         <v>16901</v>
       </c>
@@ -19933,7 +19072,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:40">
       <c r="A73">
         <v>16902</v>
       </c>
@@ -20043,7 +19182,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:40">
       <c r="A74">
         <v>16903</v>
       </c>
@@ -20153,7 +19292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:40">
       <c r="A75">
         <v>16904</v>
       </c>
@@ -20263,7 +19402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:41">
       <c r="A76">
         <v>13601</v>
       </c>
@@ -20373,7 +19512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:41">
       <c r="A77">
         <v>13602</v>
       </c>
@@ -20483,7 +19622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:41">
       <c r="A78">
         <v>13603</v>
       </c>
@@ -20593,7 +19732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:40">
       <c r="A79">
         <v>17101</v>
       </c>
@@ -20703,7 +19842,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:40">
       <c r="A80">
         <v>17102</v>
       </c>
@@ -20813,7 +19952,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:40">
       <c r="A81">
         <v>17103</v>
       </c>
@@ -20923,7 +20062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:40">
       <c r="A82">
         <v>17104</v>
       </c>
@@ -21033,7 +20172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:40">
       <c r="A83">
         <v>17201</v>
       </c>
@@ -21143,7 +20282,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:40">
       <c r="A84">
         <v>17202</v>
       </c>
@@ -21253,7 +20392,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:40">
       <c r="A85">
         <v>17203</v>
       </c>
@@ -21363,7 +20502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:40">
       <c r="A86">
         <v>17204</v>
       </c>
@@ -21473,7 +20612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:40">
       <c r="A87">
         <v>17301</v>
       </c>
@@ -21583,7 +20722,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:40">
       <c r="A88">
         <v>17302</v>
       </c>
@@ -21693,7 +20832,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:40">
       <c r="A89">
         <v>17303</v>
       </c>
@@ -21803,7 +20942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:40">
       <c r="A90">
         <v>17304</v>
       </c>
@@ -21913,7 +21052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:40">
       <c r="A91">
         <v>17501</v>
       </c>
@@ -22023,7 +21162,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:40">
       <c r="A92">
         <v>17502</v>
       </c>
@@ -22133,7 +21272,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:40">
       <c r="A93">
         <v>17503</v>
       </c>
@@ -22243,7 +21382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:40">
       <c r="A94">
         <v>17504</v>
       </c>
@@ -22457,7 +21596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:40">
       <c r="A96">
         <v>17601</v>
       </c>
@@ -22567,7 +21706,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:40">
       <c r="A97">
         <v>17602</v>
       </c>
@@ -22677,7 +21816,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:40">
       <c r="A98">
         <v>17603</v>
       </c>
@@ -22787,7 +21926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:40">
       <c r="A99">
         <v>17604</v>
       </c>
@@ -22897,7 +22036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:40">
       <c r="A100">
         <v>17801</v>
       </c>
@@ -23007,7 +22146,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:40">
       <c r="A101">
         <v>17802</v>
       </c>
@@ -23117,7 +22256,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:40">
       <c r="A102">
         <v>17803</v>
       </c>
@@ -23227,7 +22366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:40">
       <c r="A103">
         <v>17804</v>
       </c>
@@ -23842,7 +22981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:40">
       <c r="A109">
         <v>17901</v>
       </c>
@@ -23952,7 +23091,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:40">
       <c r="A110">
         <v>17902</v>
       </c>
@@ -24062,7 +23201,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:40">
       <c r="A111">
         <v>17903</v>
       </c>
@@ -24172,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:40">
       <c r="A112">
         <v>17904</v>
       </c>
@@ -24282,7 +23421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:40">
       <c r="A113">
         <v>18101</v>
       </c>
@@ -24392,7 +23531,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:40">
       <c r="A114">
         <v>18102</v>
       </c>
@@ -24502,7 +23641,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:40">
       <c r="A115">
         <v>18103</v>
       </c>
@@ -24612,7 +23751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:40">
       <c r="A116">
         <v>18104</v>
       </c>
@@ -24722,7 +23861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:42">
       <c r="A117">
         <v>10501</v>
       </c>
@@ -24826,7 +23965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:40">
       <c r="A118">
         <v>18201</v>
       </c>
@@ -24936,7 +24075,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:40">
       <c r="A119">
         <v>18202</v>
       </c>
@@ -25046,7 +24185,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:40">
       <c r="A120">
         <v>18203</v>
       </c>
@@ -25156,7 +24295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:40">
       <c r="A121">
         <v>18204</v>
       </c>
@@ -25682,7 +24821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:40">
       <c r="A126">
         <v>18301</v>
       </c>
@@ -25792,7 +24931,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:40">
       <c r="A127">
         <v>18302</v>
       </c>
@@ -25902,7 +25041,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:40">
       <c r="A128">
         <v>18303</v>
       </c>
@@ -26012,7 +25151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:40">
       <c r="A129">
         <v>18304</v>
       </c>
@@ -26226,7 +25365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:40">
       <c r="A131">
         <v>18401</v>
       </c>
@@ -26336,7 +25475,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:40">
       <c r="A132">
         <v>18402</v>
       </c>
@@ -26446,7 +25585,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:40">
       <c r="A133">
         <v>18403</v>
       </c>
@@ -26556,7 +25695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:40">
       <c r="A134">
         <v>18404</v>
       </c>
@@ -26885,10 +26024,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -26912,7 +26051,7 @@
         <v>200000</v>
       </c>
       <c r="P137" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="R137">
         <v>2</v>
@@ -26992,10 +26131,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G138">
         <v>20</v>
@@ -27019,7 +26158,7 @@
         <v>4000000</v>
       </c>
       <c r="P138" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R138">
         <v>2</v>
@@ -27099,10 +26238,10 @@
         <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -27126,7 +26265,7 @@
         <v>8000000</v>
       </c>
       <c r="P139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="R139">
         <v>2</v>
@@ -27206,10 +26345,10 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E140" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G140">
         <v>50</v>
@@ -27233,7 +26372,7 @@
         <v>16000000</v>
       </c>
       <c r="P140" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -27313,7 +26452,7 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E141" t="s">
         <v>50</v>
@@ -27340,7 +26479,7 @@
         <v>40000000</v>
       </c>
       <c r="P141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="R141">
         <v>2</v>
@@ -27409,12 +26548,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:40">
       <c r="A142">
         <v>20301</v>
       </c>
       <c r="B142">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -27519,12 +26658,12 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:40">
       <c r="A143">
         <v>20302</v>
       </c>
       <c r="B143">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C143">
         <v>2</v>
@@ -27629,12 +26768,12 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:40">
       <c r="A144">
         <v>20303</v>
       </c>
       <c r="B144">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -27744,7 +26883,7 @@
         <v>20304</v>
       </c>
       <c r="B145">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -27850,9 +26989,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/config_multi.xls/game_room.xlsx
+++ b/config_multi.xls/game_room.xlsx
@@ -1,27 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016134A6-F869-4C09-9D29-5641A1C7CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="490"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="game_room" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
     <author>芒果</author>
     <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -52,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -66,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +130,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">1. </t>
         </r>
@@ -143,7 +149,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t>2.</t>
         </r>
@@ -159,7 +165,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -173,7 +179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -241,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -255,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +277,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -287,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -303,7 +309,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <charset val="134"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -319,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0">
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -333,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -348,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0">
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -376,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -391,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="1">
+    <comment ref="AH1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -419,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0">
+    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -448,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0">
+    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -461,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0">
+    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0">
+    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -488,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0">
+    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0">
+    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -516,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="2">
+    <comment ref="AQ1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +553,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="150">
   <si>
     <t>id</t>
   </si>
@@ -1318,41 +1324,40 @@
     <t>初级场</t>
   </si>
   <si>
-    <t>10万-20万</t>
-  </si>
-  <si>
     <t>中级场</t>
-  </si>
-  <si>
-    <t>2百万-4百万</t>
   </si>
   <si>
     <t>高级场</t>
   </si>
   <si>
-    <t>4百万-8百万</t>
-  </si>
-  <si>
     <t>大师场</t>
   </si>
   <si>
-    <t>8百万-1600万</t>
+    <t>1千-2万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>2千万-4千万</t>
+    <t>1万-20万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10万-200万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>100万-2000万</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000万-20亿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1372,161 +1377,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="9"/>
+      <color indexed="0"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1541,6 +1396,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="18"/>
       <name val="宋体"/>
@@ -1550,217 +1411,31 @@
       <sz val="9"/>
       <color indexed="0"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="0"/>
+      <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="0"/>
-      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1777,251 +1452,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2032,59 +1465,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2158,12 +1544,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2177,9 +1566,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2213,9 +1608,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2249,9 +1650,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2285,9 +1692,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2321,9 +1734,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2357,9 +1776,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2393,9 +1818,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2429,9 +1860,15 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2465,9 +1902,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2501,9 +1944,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2537,9 +1986,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2573,9 +2028,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2609,9 +2070,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2645,9 +2112,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2681,9 +2154,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2717,9 +2196,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2753,9 +2238,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2789,9 +2280,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2825,9 +2322,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2861,9 +2364,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2897,9 +2406,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2933,9 +2448,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2969,9 +2490,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3005,9 +2532,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3041,9 +2574,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3077,9 +2616,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3113,9 +2658,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3149,9 +2700,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3185,9 +2742,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3221,9 +2784,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3257,9 +2826,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3293,9 +2868,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3329,9 +2910,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3365,9 +2952,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3401,9 +2994,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3437,9 +3036,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3473,9 +3078,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3509,9 +3120,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3545,9 +3162,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3581,9 +3204,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3617,9 +3246,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3653,9 +3288,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3689,9 +3330,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3725,9 +3372,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3761,9 +3414,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3797,9 +3456,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3833,9 +3498,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3869,9 +3540,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3905,9 +3582,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3941,9 +3624,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3977,9 +3666,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4013,9 +3708,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4049,9 +3750,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4085,9 +3792,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4121,9 +3834,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4157,9 +3876,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4193,9 +3918,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4229,9 +3960,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4265,9 +4002,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4301,9 +4044,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4337,9 +4086,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4373,9 +4128,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4409,9 +4170,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4445,9 +4212,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4481,9 +4254,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4517,9 +4296,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4553,9 +4338,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4589,9 +4380,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4625,9 +4422,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4661,9 +4464,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4697,9 +4506,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4733,9 +4548,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4769,9 +4590,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4805,9 +4632,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4841,9 +4674,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4877,9 +4716,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4913,9 +4758,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4949,9 +4800,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4985,9 +4842,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5021,9 +4884,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5057,9 +4926,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5093,9 +4968,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5129,9 +5010,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5165,9 +5052,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5201,9 +5094,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5237,9 +5136,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5273,9 +5178,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5309,9 +5220,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5345,9 +5262,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5381,9 +5304,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5417,9 +5346,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5453,9 +5388,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5489,9 +5430,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5525,9 +5472,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5561,9 +5514,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5597,9 +5556,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5633,9 +5598,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5669,9 +5640,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5705,9 +5682,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5741,9 +5724,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5777,9 +5766,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5813,9 +5808,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5849,9 +5850,15 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5885,9 +5892,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5921,9 +5934,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5957,9 +5976,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5993,9 +6018,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6029,9 +6060,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6065,9 +6102,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6101,9 +6144,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6137,9 +6186,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6173,9 +6228,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6209,9 +6270,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6245,9 +6312,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6281,9 +6354,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6317,9 +6396,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6353,9 +6438,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6389,9 +6480,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6425,9 +6522,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6461,9 +6564,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6497,9 +6606,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6533,9 +6648,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6569,9 +6690,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6605,9 +6732,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6641,9 +6774,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6677,9 +6816,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6713,9 +6858,15 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6749,9 +6900,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6785,9 +6942,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6821,9 +6984,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6857,9 +7026,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6893,9 +7068,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6929,9 +7110,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6965,9 +7152,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7001,9 +7194,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7037,9 +7236,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7073,9 +7278,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7109,9 +7320,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7145,9 +7362,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7181,9 +7404,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7217,9 +7446,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7253,9 +7488,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7289,9 +7530,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7325,9 +7572,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7361,9 +7614,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7397,9 +7656,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7433,9 +7698,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7469,9 +7740,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7505,9 +7782,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7541,9 +7824,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7577,9 +7866,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7613,9 +7908,15 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7649,9 +7950,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7685,9 +7992,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7721,9 +8034,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7757,9 +8076,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7793,9 +8118,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7829,9 +8160,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7865,9 +8202,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7901,9 +8244,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7937,9 +8286,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7973,9 +8328,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8009,9 +8370,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8045,9 +8412,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8081,9 +8454,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8117,9 +8496,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8153,9 +8538,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8189,9 +8580,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8225,9 +8622,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8261,9 +8664,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8297,9 +8706,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8333,9 +8748,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8369,9 +8790,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8405,9 +8832,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8441,9 +8874,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8477,9 +8916,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8513,9 +8958,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8549,9 +9000,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8585,9 +9042,15 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8621,9 +9084,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8663,9 +9132,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8705,9 +9180,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8747,9 +9228,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8789,9 +9276,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8831,9 +9324,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8873,9 +9372,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8915,9 +9420,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8957,9 +9468,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8999,9 +9516,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9041,9 +9564,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9083,9 +9612,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9125,9 +9660,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9167,9 +9708,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9209,9 +9756,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9251,9 +9804,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9293,9 +9852,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9335,9 +9900,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9377,9 +9948,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9419,9 +9996,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9461,9 +10044,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9503,9 +10092,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9545,9 +10140,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9587,9 +10188,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9629,9 +10236,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9671,9 +10284,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9713,9 +10332,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9755,9 +10380,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1"/>
+        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9797,9 +10428,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9839,9 +10476,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9881,9 +10524,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9923,9 +10572,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9965,9 +10620,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10007,9 +10668,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10049,9 +10716,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10091,9 +10764,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10133,9 +10812,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10175,9 +10860,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10217,9 +10908,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10259,9 +10956,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10301,9 +11004,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10343,9 +11052,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10385,9 +11100,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10427,9 +11148,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10469,9 +11196,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10511,9 +11244,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10553,9 +11292,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10595,9 +11340,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10637,9 +11388,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10679,9 +11436,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10721,9 +11484,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10763,9 +11532,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10805,9 +11580,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10847,9 +11628,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10889,9 +11676,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10931,9 +11724,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10973,9 +11772,15 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11284,52 +12089,52 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AQ145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U124" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U149" sqref="U149"/>
+      <selection pane="bottomRight" activeCell="P121" sqref="P121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="6.77777777777778" customWidth="1"/>
-    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
-    <col min="5" max="8" width="14.8888888888889" customWidth="1"/>
-    <col min="9" max="11" width="10.6666666666667" customWidth="1"/>
-    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="13.4444444444444" customWidth="1"/>
-    <col min="14" max="14" width="14.5555555555556" customWidth="1"/>
-    <col min="15" max="16" width="12" customWidth="1"/>
+    <col min="1" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="20.44140625" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.3333333333333" customWidth="1"/>
-    <col min="19" max="19" width="16.5555555555556" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="23" width="17.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="17.8888888888889" customWidth="1"/>
-    <col min="25" max="28" width="10.4444444444444" customWidth="1"/>
-    <col min="29" max="29" width="11.6666666666667" customWidth="1"/>
-    <col min="30" max="31" width="14.6666666666667" customWidth="1"/>
+    <col min="22" max="23" width="17.5546875" customWidth="1"/>
+    <col min="24" max="24" width="17.88671875" customWidth="1"/>
+    <col min="25" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" customWidth="1"/>
+    <col min="30" max="31" width="14.6640625" customWidth="1"/>
     <col min="32" max="33" width="15" customWidth="1"/>
-    <col min="34" max="36" width="10.4444444444444" customWidth="1"/>
-    <col min="37" max="37" width="15.4444444444444" customWidth="1"/>
-    <col min="38" max="38" width="20.6666666666667" customWidth="1"/>
-    <col min="39" max="39" width="10.4444444444444" customWidth="1"/>
-    <col min="40" max="40" width="15.1111111111111" customWidth="1"/>
-    <col min="41" max="41" width="14.4444444444444" customWidth="1"/>
-    <col min="42" max="1026" width="10.4444444444444" customWidth="1"/>
+    <col min="34" max="36" width="10.44140625" customWidth="1"/>
+    <col min="37" max="37" width="15.44140625" customWidth="1"/>
+    <col min="38" max="38" width="20.6640625" customWidth="1"/>
+    <col min="39" max="39" width="10.44140625" customWidth="1"/>
+    <col min="40" max="40" width="15.109375" customWidth="1"/>
+    <col min="41" max="41" width="14.44140625" customWidth="1"/>
+    <col min="42" max="1026" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:43">
+    <row r="1" spans="1:43" s="1" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11460,7 +12265,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:43">
       <c r="A2">
         <v>1301</v>
       </c>
@@ -11570,7 +12375,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:43">
       <c r="A3">
         <v>1302</v>
       </c>
@@ -11680,7 +12485,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:43">
       <c r="A4">
         <v>1303</v>
       </c>
@@ -11790,7 +12595,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:43">
       <c r="A5">
         <v>1304</v>
       </c>
@@ -11900,7 +12705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:43">
       <c r="A6">
         <v>2301</v>
       </c>
@@ -12010,7 +12815,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:43">
       <c r="A7">
         <v>2302</v>
       </c>
@@ -12120,7 +12925,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:43">
       <c r="A8">
         <v>2303</v>
       </c>
@@ -12233,7 +13038,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:43">
       <c r="A9">
         <v>2304</v>
       </c>
@@ -12346,7 +13151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:43">
       <c r="A10">
         <v>3201</v>
       </c>
@@ -12456,7 +13261,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:43">
       <c r="A11">
         <v>3202</v>
       </c>
@@ -12566,7 +13371,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:43">
       <c r="A12">
         <v>3203</v>
       </c>
@@ -12676,7 +13481,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:43">
       <c r="A13">
         <v>3204</v>
       </c>
@@ -12786,7 +13591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:42">
+    <row r="14" spans="1:43">
       <c r="A14">
         <v>10101</v>
       </c>
@@ -12888,7 +13693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42">
+    <row r="15" spans="1:43">
       <c r="A15">
         <v>10102</v>
       </c>
@@ -12990,7 +13795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:42">
+    <row r="16" spans="1:43">
       <c r="A16">
         <v>10103</v>
       </c>
@@ -13193,7 +13998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
+    <row r="18" spans="1:42">
       <c r="A18">
         <v>5101</v>
       </c>
@@ -13297,7 +14102,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
+    <row r="19" spans="1:42">
       <c r="A19">
         <v>5102</v>
       </c>
@@ -13401,7 +14206,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
+    <row r="20" spans="1:42">
       <c r="A20">
         <v>5103</v>
       </c>
@@ -13505,7 +14310,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
+    <row r="21" spans="1:42">
       <c r="A21">
         <v>5104</v>
       </c>
@@ -13609,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
+    <row r="22" spans="1:42">
       <c r="A22">
         <v>15001</v>
       </c>
@@ -13713,7 +14518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
+    <row r="23" spans="1:42">
       <c r="A23">
         <v>5601</v>
       </c>
@@ -13823,7 +14628,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
+    <row r="24" spans="1:42">
       <c r="A24">
         <v>5602</v>
       </c>
@@ -13933,7 +14738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
+    <row r="25" spans="1:42">
       <c r="A25">
         <v>5603</v>
       </c>
@@ -14046,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
+    <row r="26" spans="1:42">
       <c r="A26">
         <v>5604</v>
       </c>
@@ -14159,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
+    <row r="27" spans="1:42">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -14269,7 +15074,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
+    <row r="28" spans="1:42">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -14379,7 +15184,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
+    <row r="29" spans="1:42">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -14489,7 +15294,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
+    <row r="30" spans="1:42">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -14599,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
+    <row r="31" spans="1:42">
       <c r="A31">
         <v>15901</v>
       </c>
@@ -14709,7 +15514,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
+    <row r="32" spans="1:42">
       <c r="A32">
         <v>15902</v>
       </c>
@@ -14819,7 +15624,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
+    <row r="33" spans="1:42">
       <c r="A33">
         <v>15903</v>
       </c>
@@ -14929,7 +15734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
+    <row r="34" spans="1:42">
       <c r="A34">
         <v>15904</v>
       </c>
@@ -15039,7 +15844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:42">
       <c r="A35">
         <v>10801</v>
       </c>
@@ -15238,7 +16043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:42">
       <c r="A37">
         <v>13501</v>
       </c>
@@ -15342,7 +16147,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:42">
       <c r="A38">
         <v>13502</v>
       </c>
@@ -15446,7 +16251,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:42">
       <c r="A39">
         <v>13503</v>
       </c>
@@ -15550,7 +16355,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:42">
       <c r="A40">
         <v>13504</v>
       </c>
@@ -15654,7 +16459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:40">
+    <row r="41" spans="1:42">
       <c r="A41">
         <v>4101</v>
       </c>
@@ -15758,7 +16563,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="42" spans="1:40">
+    <row r="42" spans="1:42">
       <c r="A42">
         <v>4102</v>
       </c>
@@ -15862,7 +16667,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:40">
+    <row r="43" spans="1:42">
       <c r="A43">
         <v>4103</v>
       </c>
@@ -15966,7 +16771,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="1:40">
+    <row r="44" spans="1:42">
       <c r="A44">
         <v>4104</v>
       </c>
@@ -16070,7 +16875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:40">
+    <row r="45" spans="1:42">
       <c r="A45">
         <v>16301</v>
       </c>
@@ -16180,7 +16985,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:40">
+    <row r="46" spans="1:42">
       <c r="A46">
         <v>16302</v>
       </c>
@@ -16290,7 +17095,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:40">
+    <row r="47" spans="1:42">
       <c r="A47">
         <v>16303</v>
       </c>
@@ -16400,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:40">
+    <row r="48" spans="1:42">
       <c r="A48">
         <v>16304</v>
       </c>
@@ -18228,7 +19033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:40">
+    <row r="65" spans="1:42">
       <c r="A65">
         <v>14201</v>
       </c>
@@ -18338,7 +19143,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="66" spans="1:40">
+    <row r="66" spans="1:42">
       <c r="A66">
         <v>14202</v>
       </c>
@@ -18448,7 +19253,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:40">
+    <row r="67" spans="1:42">
       <c r="A67">
         <v>14203</v>
       </c>
@@ -18558,7 +19363,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="68" spans="1:40">
+    <row r="68" spans="1:42">
       <c r="A68">
         <v>14204</v>
       </c>
@@ -18772,7 +19577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:40">
+    <row r="70" spans="1:42">
       <c r="A70">
         <v>14301</v>
       </c>
@@ -18870,7 +19675,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:40">
+    <row r="71" spans="1:42">
       <c r="A71">
         <v>4301</v>
       </c>
@@ -18962,7 +19767,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:40">
+    <row r="72" spans="1:42">
       <c r="A72">
         <v>16901</v>
       </c>
@@ -19072,7 +19877,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="73" spans="1:40">
+    <row r="73" spans="1:42">
       <c r="A73">
         <v>16902</v>
       </c>
@@ -19182,7 +19987,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:40">
+    <row r="74" spans="1:42">
       <c r="A74">
         <v>16903</v>
       </c>
@@ -19292,7 +20097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:40">
+    <row r="75" spans="1:42">
       <c r="A75">
         <v>16904</v>
       </c>
@@ -19402,7 +20207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:41">
+    <row r="76" spans="1:42">
       <c r="A76">
         <v>13601</v>
       </c>
@@ -19512,7 +20317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:41">
+    <row r="77" spans="1:42">
       <c r="A77">
         <v>13602</v>
       </c>
@@ -19622,7 +20427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:41">
+    <row r="78" spans="1:42">
       <c r="A78">
         <v>13603</v>
       </c>
@@ -19732,7 +20537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:40">
+    <row r="79" spans="1:42">
       <c r="A79">
         <v>17101</v>
       </c>
@@ -19842,7 +20647,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="80" spans="1:40">
+    <row r="80" spans="1:42">
       <c r="A80">
         <v>17102</v>
       </c>
@@ -19952,7 +20757,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:40">
+    <row r="81" spans="1:42">
       <c r="A81">
         <v>17103</v>
       </c>
@@ -20062,7 +20867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:40">
+    <row r="82" spans="1:42">
       <c r="A82">
         <v>17104</v>
       </c>
@@ -20172,7 +20977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:40">
+    <row r="83" spans="1:42">
       <c r="A83">
         <v>17201</v>
       </c>
@@ -20282,7 +21087,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="1:40">
+    <row r="84" spans="1:42">
       <c r="A84">
         <v>17202</v>
       </c>
@@ -20392,7 +21197,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:40">
+    <row r="85" spans="1:42">
       <c r="A85">
         <v>17203</v>
       </c>
@@ -20502,7 +21307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:40">
+    <row r="86" spans="1:42">
       <c r="A86">
         <v>17204</v>
       </c>
@@ -20612,7 +21417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:40">
+    <row r="87" spans="1:42">
       <c r="A87">
         <v>17301</v>
       </c>
@@ -20722,7 +21527,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="88" spans="1:40">
+    <row r="88" spans="1:42">
       <c r="A88">
         <v>17302</v>
       </c>
@@ -20832,7 +21637,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:40">
+    <row r="89" spans="1:42">
       <c r="A89">
         <v>17303</v>
       </c>
@@ -20942,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:40">
+    <row r="90" spans="1:42">
       <c r="A90">
         <v>17304</v>
       </c>
@@ -21052,7 +21857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:40">
+    <row r="91" spans="1:42">
       <c r="A91">
         <v>17501</v>
       </c>
@@ -21162,7 +21967,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="92" spans="1:40">
+    <row r="92" spans="1:42">
       <c r="A92">
         <v>17502</v>
       </c>
@@ -21272,7 +22077,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:40">
+    <row r="93" spans="1:42">
       <c r="A93">
         <v>17503</v>
       </c>
@@ -21382,7 +22187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:40">
+    <row r="94" spans="1:42">
       <c r="A94">
         <v>17504</v>
       </c>
@@ -21596,7 +22401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:40">
+    <row r="96" spans="1:42">
       <c r="A96">
         <v>17601</v>
       </c>
@@ -21706,7 +22511,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="97" spans="1:40">
+    <row r="97" spans="1:42">
       <c r="A97">
         <v>17602</v>
       </c>
@@ -21816,7 +22621,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:40">
+    <row r="98" spans="1:42">
       <c r="A98">
         <v>17603</v>
       </c>
@@ -21926,7 +22731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:40">
+    <row r="99" spans="1:42">
       <c r="A99">
         <v>17604</v>
       </c>
@@ -22036,7 +22841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:40">
+    <row r="100" spans="1:42">
       <c r="A100">
         <v>17801</v>
       </c>
@@ -22146,7 +22951,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="1:40">
+    <row r="101" spans="1:42">
       <c r="A101">
         <v>17802</v>
       </c>
@@ -22256,7 +23061,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="102" spans="1:40">
+    <row r="102" spans="1:42">
       <c r="A102">
         <v>17803</v>
       </c>
@@ -22366,7 +23171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:40">
+    <row r="103" spans="1:42">
       <c r="A103">
         <v>17804</v>
       </c>
@@ -22981,7 +23786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:40">
+    <row r="109" spans="1:42">
       <c r="A109">
         <v>17901</v>
       </c>
@@ -23091,7 +23896,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="110" spans="1:40">
+    <row r="110" spans="1:42">
       <c r="A110">
         <v>17902</v>
       </c>
@@ -23201,7 +24006,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="111" spans="1:40">
+    <row r="111" spans="1:42">
       <c r="A111">
         <v>17903</v>
       </c>
@@ -23311,7 +24116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:40">
+    <row r="112" spans="1:42">
       <c r="A112">
         <v>17904</v>
       </c>
@@ -23421,7 +24226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:40">
+    <row r="113" spans="1:43">
       <c r="A113">
         <v>18101</v>
       </c>
@@ -23531,7 +24336,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="114" spans="1:40">
+    <row r="114" spans="1:43">
       <c r="A114">
         <v>18102</v>
       </c>
@@ -23641,7 +24446,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="115" spans="1:40">
+    <row r="115" spans="1:43">
       <c r="A115">
         <v>18103</v>
       </c>
@@ -23751,7 +24556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:40">
+    <row r="116" spans="1:43">
       <c r="A116">
         <v>18104</v>
       </c>
@@ -23861,7 +24666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:42">
+    <row r="117" spans="1:43">
       <c r="A117">
         <v>10501</v>
       </c>
@@ -23965,7 +24770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:40">
+    <row r="118" spans="1:43">
       <c r="A118">
         <v>18201</v>
       </c>
@@ -24075,7 +24880,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="119" spans="1:40">
+    <row r="119" spans="1:43">
       <c r="A119">
         <v>18202</v>
       </c>
@@ -24185,7 +24990,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="120" spans="1:40">
+    <row r="120" spans="1:43">
       <c r="A120">
         <v>18203</v>
       </c>
@@ -24295,7 +25100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:40">
+    <row r="121" spans="1:43">
       <c r="A121">
         <v>18204</v>
       </c>
@@ -24415,7 +25220,7 @@
       <c r="C122">
         <v>1</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E122" t="s">
@@ -24519,7 +25324,7 @@
       <c r="C123">
         <v>2</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D123" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E123" t="s">
@@ -24623,7 +25428,7 @@
       <c r="C124">
         <v>3</v>
       </c>
-      <c r="D124" s="6" t="s">
+      <c r="D124" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E124" t="s">
@@ -24727,7 +25532,7 @@
       <c r="C125">
         <v>4</v>
       </c>
-      <c r="D125" s="6" t="s">
+      <c r="D125" s="4" t="s">
         <v>126</v>
       </c>
       <c r="E125" t="s">
@@ -24821,7 +25626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:40">
+    <row r="126" spans="1:43">
       <c r="A126">
         <v>18301</v>
       </c>
@@ -24931,7 +25736,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="127" spans="1:40">
+    <row r="127" spans="1:43">
       <c r="A127">
         <v>18302</v>
       </c>
@@ -25041,7 +25846,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="128" spans="1:40">
+    <row r="128" spans="1:43">
       <c r="A128">
         <v>18303</v>
       </c>
@@ -25151,7 +25956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:40">
+    <row r="129" spans="1:42">
       <c r="A129">
         <v>18304</v>
       </c>
@@ -25365,7 +26170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:40">
+    <row r="131" spans="1:42">
       <c r="A131">
         <v>18401</v>
       </c>
@@ -25475,7 +26280,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="132" spans="1:40">
+    <row r="132" spans="1:42">
       <c r="A132">
         <v>18402</v>
       </c>
@@ -25585,7 +26390,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="133" spans="1:40">
+    <row r="133" spans="1:42">
       <c r="A133">
         <v>18403</v>
       </c>
@@ -25695,7 +26500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:40">
+    <row r="134" spans="1:42">
       <c r="A134">
         <v>18404</v>
       </c>
@@ -25815,7 +26620,7 @@
       <c r="C135">
         <v>1</v>
       </c>
-      <c r="D135" s="6" t="s">
+      <c r="D135" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E135" s="4" t="s">
@@ -25839,7 +26644,7 @@
       <c r="N135">
         <v>10000000000</v>
       </c>
-      <c r="P135" s="6" t="s">
+      <c r="P135" s="4" t="s">
         <v>138</v>
       </c>
       <c r="R135">
@@ -25919,7 +26724,7 @@
       <c r="C136">
         <v>1</v>
       </c>
-      <c r="D136" s="6" t="s">
+      <c r="D136" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E136" t="s">
@@ -26039,19 +26844,22 @@
         <v>1</v>
       </c>
       <c r="K137">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L137">
+        <v>50</v>
+      </c>
+      <c r="M137">
         <v>1000</v>
       </c>
-      <c r="M137">
-        <v>100000</v>
-      </c>
       <c r="N137">
-        <v>200000</v>
-      </c>
-      <c r="P137" t="s">
-        <v>142</v>
+        <v>20000</v>
+      </c>
+      <c r="O137">
+        <v>999</v>
+      </c>
+      <c r="P137" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="R137">
         <v>2</v>
@@ -26133,8 +26941,8 @@
       <c r="D138" t="s">
         <v>140</v>
       </c>
-      <c r="E138" s="6" t="s">
-        <v>143</v>
+      <c r="E138" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G138">
         <v>20</v>
@@ -26146,19 +26954,22 @@
         <v>1</v>
       </c>
       <c r="K138">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>20000</v>
+        <v>500</v>
       </c>
       <c r="M138">
-        <v>2000000</v>
+        <v>10000</v>
       </c>
       <c r="N138">
-        <v>4000000</v>
-      </c>
-      <c r="P138" t="s">
-        <v>144</v>
+        <v>200000</v>
+      </c>
+      <c r="O138">
+        <v>9999</v>
+      </c>
+      <c r="P138" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="R138">
         <v>2</v>
@@ -26241,7 +27052,7 @@
         <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -26253,19 +27064,22 @@
         <v>1</v>
       </c>
       <c r="K139">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>40000</v>
+        <v>5000</v>
       </c>
       <c r="M139">
-        <v>4000000</v>
+        <v>100000</v>
       </c>
       <c r="N139">
-        <v>8000000</v>
-      </c>
-      <c r="P139" t="s">
-        <v>146</v>
+        <v>2000000</v>
+      </c>
+      <c r="O139">
+        <v>99999</v>
+      </c>
+      <c r="P139" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="R139">
         <v>2</v>
@@ -26348,7 +27162,7 @@
         <v>140</v>
       </c>
       <c r="E140" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G140">
         <v>50</v>
@@ -26360,18 +27174,21 @@
         <v>1</v>
       </c>
       <c r="K140">
-        <v>24000</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="M140">
-        <v>8000000</v>
+        <v>1000000</v>
       </c>
       <c r="N140">
-        <v>16000000</v>
-      </c>
-      <c r="P140" t="s">
+        <v>20000000</v>
+      </c>
+      <c r="O140">
+        <v>999999</v>
+      </c>
+      <c r="P140" s="6" t="s">
         <v>148</v>
       </c>
       <c r="R140">
@@ -26467,18 +27284,21 @@
         <v>1</v>
       </c>
       <c r="K141">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="L141">
-        <v>200000</v>
+        <v>500000</v>
       </c>
       <c r="M141">
-        <v>20000000</v>
+        <v>10000000</v>
       </c>
       <c r="N141">
-        <v>40000000</v>
-      </c>
-      <c r="P141" t="s">
+        <v>2000000000</v>
+      </c>
+      <c r="O141">
+        <v>9999999</v>
+      </c>
+      <c r="P141" s="6" t="s">
         <v>149</v>
       </c>
       <c r="R141">
@@ -26548,21 +27368,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:40">
+    <row r="142" spans="1:42">
       <c r="A142">
         <v>20301</v>
       </c>
       <c r="B142">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
-      <c r="D142" s="6">
+      <c r="D142" s="4">
         <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -26574,22 +27394,25 @@
         <v>1</v>
       </c>
       <c r="K142">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L142">
         <v>100</v>
       </c>
       <c r="M142">
-        <v>3100</v>
+        <v>1000</v>
       </c>
       <c r="N142">
-        <v>10000000000</v>
-      </c>
-      <c r="P142" s="4" t="s">
-        <v>85</v>
+        <v>20000</v>
+      </c>
+      <c r="O142">
+        <v>999</v>
+      </c>
+      <c r="P142" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="R142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S142">
         <v>5</v>
@@ -26601,7 +27424,7 @@
         <v>2</v>
       </c>
       <c r="V142">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W142">
         <v>0</v>
@@ -26658,21 +27481,21 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:40">
+    <row r="143" spans="1:42">
       <c r="A143">
         <v>20302</v>
       </c>
       <c r="B143">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C143">
         <v>2</v>
       </c>
-      <c r="D143" s="6">
+      <c r="D143" s="4">
         <v>21</v>
       </c>
-      <c r="E143" t="s">
-        <v>46</v>
+      <c r="E143" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="G143">
         <v>20</v>
@@ -26684,22 +27507,25 @@
         <v>1</v>
       </c>
       <c r="K143">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="L143">
         <v>1000</v>
       </c>
       <c r="M143">
-        <v>31000</v>
+        <v>10000</v>
       </c>
       <c r="N143">
-        <v>10000000000</v>
-      </c>
-      <c r="P143" s="4" t="s">
-        <v>86</v>
+        <v>200000</v>
+      </c>
+      <c r="O143">
+        <v>9999</v>
+      </c>
+      <c r="P143" s="6" t="s">
+        <v>146</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S143">
         <v>5</v>
@@ -26711,7 +27537,7 @@
         <v>2</v>
       </c>
       <c r="V143">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W143">
         <v>0</v>
@@ -26768,12 +27594,12 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="144" spans="1:40">
+    <row r="144" spans="1:42">
       <c r="A144">
         <v>20303</v>
       </c>
       <c r="B144">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C144">
         <v>3</v>
@@ -26782,7 +27608,7 @@
         <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="G144">
         <v>30</v>
@@ -26794,22 +27620,25 @@
         <v>1</v>
       </c>
       <c r="K144">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L144">
         <v>10000</v>
       </c>
       <c r="M144">
-        <v>310000</v>
+        <v>100000</v>
       </c>
       <c r="N144">
-        <v>10000000000</v>
-      </c>
-      <c r="P144" s="4" t="s">
-        <v>87</v>
+        <v>2000000</v>
+      </c>
+      <c r="O144">
+        <v>99999</v>
+      </c>
+      <c r="P144" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="R144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S144">
         <v>5</v>
@@ -26821,7 +27650,7 @@
         <v>2</v>
       </c>
       <c r="V144">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W144">
         <v>0</v>
@@ -26883,7 +27712,7 @@
         <v>20304</v>
       </c>
       <c r="B145">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -26892,7 +27721,7 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="G145">
         <v>50</v>
@@ -26904,22 +27733,25 @@
         <v>1</v>
       </c>
       <c r="K145">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="L145">
         <v>100000</v>
       </c>
       <c r="M145">
-        <v>3100000</v>
+        <v>1000000</v>
       </c>
       <c r="N145">
-        <v>10000000000</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>88</v>
+        <v>20000000</v>
+      </c>
+      <c r="O145">
+        <v>999999</v>
+      </c>
+      <c r="P145" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S145">
         <v>5</v>
@@ -26931,7 +27763,7 @@
         <v>2</v>
       </c>
       <c r="V145">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="W145">
         <v>0</v>
@@ -26988,10 +27820,123 @@
         <v>0</v>
       </c>
     </row>
+    <row r="146" spans="1:40">
+      <c r="A146">
+        <v>20305</v>
+      </c>
+      <c r="B146">
+        <v>203</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>21</v>
+      </c>
+      <c r="E146" t="s">
+        <v>50</v>
+      </c>
+      <c r="G146">
+        <v>50</v>
+      </c>
+      <c r="H146">
+        <v>100</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1000000</v>
+      </c>
+      <c r="M146">
+        <v>10000000</v>
+      </c>
+      <c r="N146">
+        <v>2000000000</v>
+      </c>
+      <c r="O146">
+        <v>9999999</v>
+      </c>
+      <c r="P146" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R146">
+        <v>1</v>
+      </c>
+      <c r="S146">
+        <v>5</v>
+      </c>
+      <c r="T146">
+        <v>4</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>3</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>4000</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>1</v>
+      </c>
+      <c r="AC146">
+        <v>0</v>
+      </c>
+      <c r="AD146">
+        <v>10000000</v>
+      </c>
+      <c r="AE146">
+        <v>37</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>-1</v>
+      </c>
+      <c r="AH146">
+        <v>1</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>15000</v>
+      </c>
+      <c r="AL146">
+        <v>25000</v>
+      </c>
+      <c r="AM146">
+        <v>2</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>

--- a/config_multi.xls/game_room.xlsx
+++ b/config_multi.xls/game_room.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016134A6-F869-4C09-9D29-5641A1C7CB0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFC84D-A021-4349-BAB1-038991C59C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12101,7 +12101,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P121" sqref="P121"/>
+      <selection pane="bottomRight" activeCell="N146" sqref="N146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -27400,7 +27400,7 @@
         <v>100</v>
       </c>
       <c r="M142">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="N142">
         <v>20000</v>
@@ -27513,7 +27513,7 @@
         <v>1000</v>
       </c>
       <c r="M143">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="N143">
         <v>200000</v>
@@ -27626,7 +27626,7 @@
         <v>10000</v>
       </c>
       <c r="M144">
-        <v>100000</v>
+        <v>300000</v>
       </c>
       <c r="N144">
         <v>2000000</v>
@@ -27739,7 +27739,7 @@
         <v>100000</v>
       </c>
       <c r="M145">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="N145">
         <v>20000000</v>
@@ -27852,7 +27852,7 @@
         <v>1000000</v>
       </c>
       <c r="M146">
-        <v>10000000</v>
+        <v>30000000</v>
       </c>
       <c r="N146">
         <v>2000000000</v>

--- a/config_multi.xls/game_room.xlsx
+++ b/config_multi.xls/game_room.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EFC84D-A021-4349-BAB1-038991C59C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33345A75-556F-4578-8628-0D491FD7BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,15 @@
     <sheet name="game_room" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -553,7 +562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
   <si>
     <t>id</t>
   </si>
@@ -667,9 +676,6 @@
   </si>
   <si>
     <t>match_time_max</t>
-  </si>
-  <si>
-    <t>result_type</t>
   </si>
   <si>
     <t>virtual_play_num</t>
@@ -1350,6 +1356,14 @@
   </si>
   <si>
     <t>1000万-20亿</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>rummy</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>result_type</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12095,13 +12109,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ146"/>
+  <dimension ref="A1:AQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AD122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N146" sqref="N146"/>
+      <selection pane="bottomRight" activeCell="AH137" sqref="AH137:AH150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -12250,19 +12264,19 @@
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:43">
@@ -12276,10 +12290,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>44</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -12303,7 +12317,7 @@
         <v>10000000000</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -12386,10 +12400,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -12413,7 +12427,7 @@
         <v>10000000000</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -12496,10 +12510,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -12523,7 +12537,7 @@
         <v>10000000000</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -12606,10 +12620,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -12633,7 +12647,7 @@
         <v>10000000000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -12716,10 +12730,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -12743,7 +12757,7 @@
         <v>10000000000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -12826,10 +12840,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -12853,7 +12867,7 @@
         <v>10000000000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -12936,13 +12950,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>53</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -12966,7 +12980,7 @@
         <v>10000000000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -13049,13 +13063,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
         <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -13079,7 +13093,7 @@
         <v>10000000000</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -13162,10 +13176,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -13189,7 +13203,7 @@
         <v>10000000000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R10">
         <v>3</v>
@@ -13272,10 +13286,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -13299,7 +13313,7 @@
         <v>10000000000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R11">
         <v>3</v>
@@ -13382,10 +13396,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -13409,7 +13423,7 @@
         <v>10000000000</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12">
         <v>3</v>
@@ -13492,10 +13506,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -13519,7 +13533,7 @@
         <v>10000000000</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -13602,10 +13616,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -13624,7 +13638,7 @@
         <v>99999</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -13704,10 +13718,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -13726,7 +13740,7 @@
         <v>999999</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -13806,10 +13820,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -13828,7 +13842,7 @@
         <v>1999999</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -13908,10 +13922,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -13929,7 +13943,7 @@
         <v>10000000000</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -14009,10 +14023,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -14036,7 +14050,7 @@
         <v>10000000000</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -14113,10 +14127,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -14140,7 +14154,7 @@
         <v>10000000000</v>
       </c>
       <c r="P19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R19">
         <v>2</v>
@@ -14217,10 +14231,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -14244,7 +14258,7 @@
         <v>10000000000</v>
       </c>
       <c r="P20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -14321,10 +14335,10 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -14348,7 +14362,7 @@
         <v>10000000000</v>
       </c>
       <c r="P21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R21">
         <v>2</v>
@@ -14425,10 +14439,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -14452,7 +14466,7 @@
         <v>10000000000</v>
       </c>
       <c r="P22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -14529,10 +14543,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -14556,7 +14570,7 @@
         <v>10000000000</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -14639,10 +14653,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -14666,7 +14680,7 @@
         <v>10000000000</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -14749,13 +14763,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -14779,7 +14793,7 @@
         <v>10000000000</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -14862,13 +14876,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G26">
         <v>50</v>
@@ -14892,7 +14906,7 @@
         <v>10000000000</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -14975,10 +14989,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -15002,7 +15016,7 @@
         <v>10000000000</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -15085,10 +15099,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -15112,7 +15126,7 @@
         <v>10000000000</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -15195,10 +15209,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G29">
         <v>30</v>
@@ -15222,7 +15236,7 @@
         <v>10000000000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -15305,10 +15319,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -15332,7 +15346,7 @@
         <v>10000000000</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R30">
         <v>4</v>
@@ -15415,10 +15429,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -15442,7 +15456,7 @@
         <v>10000000000</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -15525,10 +15539,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -15552,7 +15566,7 @@
         <v>10000000000</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R32">
         <v>4</v>
@@ -15635,10 +15649,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -15662,7 +15676,7 @@
         <v>10000000000</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R33">
         <v>4</v>
@@ -15745,10 +15759,10 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -15772,7 +15786,7 @@
         <v>10000000000</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R34">
         <v>4</v>
@@ -15855,10 +15869,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -15876,7 +15890,7 @@
         <v>10000000000</v>
       </c>
       <c r="P35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -15953,10 +15967,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -15974,7 +15988,7 @@
         <v>10000000000</v>
       </c>
       <c r="P36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R36">
         <v>8</v>
@@ -16054,10 +16068,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -16081,7 +16095,7 @@
         <v>10000000000</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -16158,10 +16172,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G38">
         <v>20</v>
@@ -16185,7 +16199,7 @@
         <v>10000000000</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -16262,10 +16276,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -16289,7 +16303,7 @@
         <v>10000000000</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -16366,10 +16380,10 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40">
         <v>50</v>
@@ -16393,7 +16407,7 @@
         <v>10000000000</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -16470,10 +16484,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -16497,7 +16511,7 @@
         <v>10000000000</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -16574,10 +16588,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -16601,7 +16615,7 @@
         <v>10000000000</v>
       </c>
       <c r="P42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -16678,10 +16692,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -16705,7 +16719,7 @@
         <v>10000000000</v>
       </c>
       <c r="P43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -16782,10 +16796,10 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44">
         <v>50</v>
@@ -16809,7 +16823,7 @@
         <v>10000000000</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -16886,10 +16900,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -16913,7 +16927,7 @@
         <v>10000000000</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -16996,10 +17010,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -17023,7 +17037,7 @@
         <v>10000000000</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -17106,10 +17120,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -17133,7 +17147,7 @@
         <v>10000000000</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -17216,10 +17230,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48">
         <v>50</v>
@@ -17243,7 +17257,7 @@
         <v>10000000000</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -17326,10 +17340,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -17353,7 +17367,7 @@
         <v>10000000000</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R49">
         <v>4</v>
@@ -17436,10 +17450,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -17463,7 +17477,7 @@
         <v>10000000000</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R50">
         <v>4</v>
@@ -17546,13 +17560,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G51">
         <v>30</v>
@@ -17576,7 +17590,7 @@
         <v>10000000000</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -17659,13 +17673,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -17689,7 +17703,7 @@
         <v>10000000000</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -17772,10 +17786,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -17793,7 +17807,7 @@
         <v>99999</v>
       </c>
       <c r="P53" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -17870,10 +17884,10 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -17891,7 +17905,7 @@
         <v>999999</v>
       </c>
       <c r="P54" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -17968,10 +17982,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -17989,7 +18003,7 @@
         <v>1999999</v>
       </c>
       <c r="P55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -18066,10 +18080,10 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -18087,7 +18101,7 @@
         <v>10000000000</v>
       </c>
       <c r="P56" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -18164,10 +18178,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -18191,7 +18205,7 @@
         <v>10000000000</v>
       </c>
       <c r="P57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R57">
         <v>4</v>
@@ -18274,10 +18288,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G58">
         <v>20</v>
@@ -18301,7 +18315,7 @@
         <v>10000000000</v>
       </c>
       <c r="P58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R58">
         <v>4</v>
@@ -18384,10 +18398,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -18411,7 +18425,7 @@
         <v>10000000000</v>
       </c>
       <c r="P59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R59">
         <v>4</v>
@@ -18494,10 +18508,10 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -18521,7 +18535,7 @@
         <v>10000000000</v>
       </c>
       <c r="P60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -18604,10 +18618,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -18631,7 +18645,7 @@
         <v>10000000000</v>
       </c>
       <c r="P61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R61">
         <v>4</v>
@@ -18714,10 +18728,10 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -18741,7 +18755,7 @@
         <v>10000000000</v>
       </c>
       <c r="P62" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R62">
         <v>4</v>
@@ -18824,10 +18838,10 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -18851,7 +18865,7 @@
         <v>10000000000</v>
       </c>
       <c r="P63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -18934,10 +18948,10 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G64">
         <v>50</v>
@@ -18961,7 +18975,7 @@
         <v>10000000000</v>
       </c>
       <c r="P64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R64">
         <v>4</v>
@@ -19044,10 +19058,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -19071,7 +19085,7 @@
         <v>10000000000</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -19154,10 +19168,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G66">
         <v>20</v>
@@ -19181,7 +19195,7 @@
         <v>10000000000</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R66">
         <v>4</v>
@@ -19264,10 +19278,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -19291,7 +19305,7 @@
         <v>10000000000</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R67">
         <v>4</v>
@@ -19374,10 +19388,10 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -19401,7 +19415,7 @@
         <v>10000000000</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R68">
         <v>4</v>
@@ -19484,10 +19498,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -19508,7 +19522,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -19588,10 +19602,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -19609,7 +19623,7 @@
         <v>10000000000</v>
       </c>
       <c r="P70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -19686,10 +19700,10 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -19778,10 +19792,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -19805,7 +19819,7 @@
         <v>10000000000</v>
       </c>
       <c r="P72" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R72">
         <v>4</v>
@@ -19888,10 +19902,10 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -19915,7 +19929,7 @@
         <v>10000000000</v>
       </c>
       <c r="P73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R73">
         <v>4</v>
@@ -19998,10 +20012,10 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -20025,7 +20039,7 @@
         <v>10000000000</v>
       </c>
       <c r="P74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R74">
         <v>4</v>
@@ -20108,10 +20122,10 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G75">
         <v>50</v>
@@ -20135,7 +20149,7 @@
         <v>10000000000</v>
       </c>
       <c r="P75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R75">
         <v>4</v>
@@ -20218,10 +20232,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -20248,7 +20262,7 @@
         <v>1000</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -20328,10 +20342,10 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -20358,7 +20372,7 @@
         <v>10000</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R77">
         <v>2</v>
@@ -20438,10 +20452,10 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -20468,7 +20482,7 @@
         <v>50000</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R78">
         <v>2</v>
@@ -20548,10 +20562,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -20575,7 +20589,7 @@
         <v>10000000000</v>
       </c>
       <c r="P79" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R79">
         <v>4</v>
@@ -20658,10 +20672,10 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G80">
         <v>20</v>
@@ -20685,7 +20699,7 @@
         <v>10000000000</v>
       </c>
       <c r="P80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R80">
         <v>4</v>
@@ -20768,10 +20782,10 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G81">
         <v>30</v>
@@ -20795,7 +20809,7 @@
         <v>10000000000</v>
       </c>
       <c r="P81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R81">
         <v>4</v>
@@ -20878,10 +20892,10 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G82">
         <v>50</v>
@@ -20905,7 +20919,7 @@
         <v>10000000000</v>
       </c>
       <c r="P82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R82">
         <v>4</v>
@@ -20988,10 +21002,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -21015,7 +21029,7 @@
         <v>10000000000</v>
       </c>
       <c r="P83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R83">
         <v>4</v>
@@ -21098,10 +21112,10 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G84">
         <v>20</v>
@@ -21125,7 +21139,7 @@
         <v>10000000000</v>
       </c>
       <c r="P84" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R84">
         <v>4</v>
@@ -21208,10 +21222,10 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G85">
         <v>30</v>
@@ -21235,7 +21249,7 @@
         <v>10000000000</v>
       </c>
       <c r="P85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R85">
         <v>4</v>
@@ -21318,10 +21332,10 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G86">
         <v>50</v>
@@ -21345,7 +21359,7 @@
         <v>10000000000</v>
       </c>
       <c r="P86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -21428,10 +21442,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -21455,7 +21469,7 @@
         <v>10000000000</v>
       </c>
       <c r="P87" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R87">
         <v>4</v>
@@ -21538,10 +21552,10 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G88">
         <v>20</v>
@@ -21565,7 +21579,7 @@
         <v>10000000000</v>
       </c>
       <c r="P88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R88">
         <v>4</v>
@@ -21648,10 +21662,10 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E89" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G89">
         <v>30</v>
@@ -21675,7 +21689,7 @@
         <v>10000000000</v>
       </c>
       <c r="P89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -21758,10 +21772,10 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G90">
         <v>50</v>
@@ -21785,7 +21799,7 @@
         <v>10000000000</v>
       </c>
       <c r="P90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R90">
         <v>4</v>
@@ -21868,10 +21882,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -21895,7 +21909,7 @@
         <v>10000000000</v>
       </c>
       <c r="P91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R91">
         <v>4</v>
@@ -21978,10 +21992,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E92" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G92">
         <v>20</v>
@@ -22005,7 +22019,7 @@
         <v>10000000000</v>
       </c>
       <c r="P92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R92">
         <v>4</v>
@@ -22088,10 +22102,10 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -22115,7 +22129,7 @@
         <v>10000000000</v>
       </c>
       <c r="P93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R93">
         <v>4</v>
@@ -22198,10 +22212,10 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E94" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G94">
         <v>50</v>
@@ -22225,7 +22239,7 @@
         <v>10000000000</v>
       </c>
       <c r="P94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R94">
         <v>4</v>
@@ -22308,10 +22322,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -22332,7 +22346,7 @@
         <v>100</v>
       </c>
       <c r="P95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R95">
         <v>1</v>
@@ -22412,10 +22426,10 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -22439,7 +22453,7 @@
         <v>10000000000</v>
       </c>
       <c r="P96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R96">
         <v>4</v>
@@ -22522,10 +22536,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G97">
         <v>20</v>
@@ -22549,7 +22563,7 @@
         <v>10000000000</v>
       </c>
       <c r="P97" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R97">
         <v>4</v>
@@ -22632,10 +22646,10 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E98" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G98">
         <v>30</v>
@@ -22659,7 +22673,7 @@
         <v>10000000000</v>
       </c>
       <c r="P98" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -22742,10 +22756,10 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E99" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -22769,7 +22783,7 @@
         <v>10000000000</v>
       </c>
       <c r="P99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R99">
         <v>4</v>
@@ -22852,10 +22866,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -22879,7 +22893,7 @@
         <v>10000000000</v>
       </c>
       <c r="P100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R100">
         <v>4</v>
@@ -22962,10 +22976,10 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G101">
         <v>20</v>
@@ -22989,7 +23003,7 @@
         <v>10000000000</v>
       </c>
       <c r="P101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R101">
         <v>4</v>
@@ -23072,10 +23086,10 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E102" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G102">
         <v>30</v>
@@ -23099,7 +23113,7 @@
         <v>10000000000</v>
       </c>
       <c r="P102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -23182,10 +23196,10 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G103">
         <v>50</v>
@@ -23209,7 +23223,7 @@
         <v>10000000000</v>
       </c>
       <c r="P103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R103">
         <v>4</v>
@@ -23292,10 +23306,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104" t="s">
         <v>113</v>
-      </c>
-      <c r="E104" t="s">
-        <v>114</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -23313,7 +23327,7 @@
         <v>10000000000</v>
       </c>
       <c r="P104" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -23393,10 +23407,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -23414,7 +23428,7 @@
         <v>10000000000</v>
       </c>
       <c r="P105" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -23494,10 +23508,10 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E106" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -23515,7 +23529,7 @@
         <v>10000000000</v>
       </c>
       <c r="P106" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R106">
         <v>1</v>
@@ -23595,10 +23609,10 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -23616,7 +23630,7 @@
         <v>10000000000</v>
       </c>
       <c r="P107" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R107">
         <v>1</v>
@@ -23696,10 +23710,10 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -23717,7 +23731,7 @@
         <v>10000000000</v>
       </c>
       <c r="P108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R108">
         <v>1</v>
@@ -23797,10 +23811,10 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -23824,7 +23838,7 @@
         <v>10000000000</v>
       </c>
       <c r="P109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R109">
         <v>4</v>
@@ -23907,10 +23921,10 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G110">
         <v>20</v>
@@ -23934,7 +23948,7 @@
         <v>10000000000</v>
       </c>
       <c r="P110" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R110">
         <v>4</v>
@@ -24017,10 +24031,10 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G111">
         <v>30</v>
@@ -24044,7 +24058,7 @@
         <v>10000000000</v>
       </c>
       <c r="P111" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R111">
         <v>4</v>
@@ -24127,10 +24141,10 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E112" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G112">
         <v>50</v>
@@ -24154,7 +24168,7 @@
         <v>10000000000</v>
       </c>
       <c r="P112" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R112">
         <v>4</v>
@@ -24237,10 +24251,10 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -24264,7 +24278,7 @@
         <v>10000000000</v>
       </c>
       <c r="P113" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R113">
         <v>4</v>
@@ -24347,10 +24361,10 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G114">
         <v>20</v>
@@ -24374,7 +24388,7 @@
         <v>10000000000</v>
       </c>
       <c r="P114" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R114">
         <v>4</v>
@@ -24457,10 +24471,10 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G115">
         <v>30</v>
@@ -24484,7 +24498,7 @@
         <v>10000000000</v>
       </c>
       <c r="P115" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R115">
         <v>4</v>
@@ -24567,10 +24581,10 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E116" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G116">
         <v>50</v>
@@ -24594,7 +24608,7 @@
         <v>10000000000</v>
       </c>
       <c r="P116" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R116">
         <v>4</v>
@@ -24677,10 +24691,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E117" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -24701,7 +24715,7 @@
         <v>100</v>
       </c>
       <c r="P117" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -24781,10 +24795,10 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -24808,7 +24822,7 @@
         <v>10000000000</v>
       </c>
       <c r="P118" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R118">
         <v>4</v>
@@ -24891,10 +24905,10 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E119" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G119">
         <v>20</v>
@@ -24918,7 +24932,7 @@
         <v>10000000000</v>
       </c>
       <c r="P119" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R119">
         <v>4</v>
@@ -25001,10 +25015,10 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G120">
         <v>30</v>
@@ -25028,7 +25042,7 @@
         <v>10000000000</v>
       </c>
       <c r="P120" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R120">
         <v>4</v>
@@ -25111,10 +25125,10 @@
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G121">
         <v>50</v>
@@ -25138,7 +25152,7 @@
         <v>10000000000</v>
       </c>
       <c r="P121" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R121">
         <v>4</v>
@@ -25221,10 +25235,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -25242,7 +25256,7 @@
         <v>10000000000</v>
       </c>
       <c r="P122" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R122">
         <v>1</v>
@@ -25325,10 +25339,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -25346,7 +25360,7 @@
         <v>10000000000</v>
       </c>
       <c r="P123" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R123">
         <v>1</v>
@@ -25429,10 +25443,10 @@
         <v>3</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -25450,7 +25464,7 @@
         <v>10000000000</v>
       </c>
       <c r="P124" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R124">
         <v>1</v>
@@ -25533,10 +25547,10 @@
         <v>4</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -25554,7 +25568,7 @@
         <v>10000000000</v>
       </c>
       <c r="P125" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="R125">
         <v>1</v>
@@ -25637,10 +25651,10 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -25664,7 +25678,7 @@
         <v>10000000000</v>
       </c>
       <c r="P126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="R126">
         <v>4</v>
@@ -25747,10 +25761,10 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G127">
         <v>20</v>
@@ -25774,7 +25788,7 @@
         <v>10000000000</v>
       </c>
       <c r="P127" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R127">
         <v>4</v>
@@ -25857,10 +25871,10 @@
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G128">
         <v>30</v>
@@ -25884,7 +25898,7 @@
         <v>10000000000</v>
       </c>
       <c r="P128" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R128">
         <v>4</v>
@@ -25967,10 +25981,10 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -25994,7 +26008,7 @@
         <v>10000000000</v>
       </c>
       <c r="P129" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R129">
         <v>4</v>
@@ -26077,10 +26091,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -26101,7 +26115,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R130">
         <v>1</v>
@@ -26181,10 +26195,10 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -26208,7 +26222,7 @@
         <v>20000</v>
       </c>
       <c r="P131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R131">
         <v>2</v>
@@ -26291,10 +26305,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E132" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G132">
         <v>20</v>
@@ -26318,7 +26332,7 @@
         <v>250000</v>
       </c>
       <c r="P132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R132">
         <v>2</v>
@@ -26401,10 +26415,10 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G133">
         <v>30</v>
@@ -26428,7 +26442,7 @@
         <v>10000000000</v>
       </c>
       <c r="P133" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R133">
         <v>2</v>
@@ -26511,10 +26525,10 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -26538,7 +26552,7 @@
         <v>10000000000</v>
       </c>
       <c r="P134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R134">
         <v>2</v>
@@ -26621,10 +26635,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -26645,7 +26659,7 @@
         <v>10000000000</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R135">
         <v>8</v>
@@ -26725,10 +26739,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E136" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -26749,7 +26763,7 @@
         <v>100</v>
       </c>
       <c r="P136" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R136">
         <v>1</v>
@@ -26829,10 +26843,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
+        <v>139</v>
+      </c>
+      <c r="E137" t="s">
         <v>140</v>
-      </c>
-      <c r="E137" t="s">
-        <v>141</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -26859,7 +26873,7 @@
         <v>999</v>
       </c>
       <c r="P137" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R137">
         <v>2</v>
@@ -26910,7 +26924,7 @@
         <v>-1</v>
       </c>
       <c r="AH137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI137">
         <v>0</v>
@@ -26939,10 +26953,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G138">
         <v>20</v>
@@ -26969,7 +26983,7 @@
         <v>9999</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R138">
         <v>2</v>
@@ -27020,7 +27034,7 @@
         <v>-1</v>
       </c>
       <c r="AH138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI138">
         <v>0</v>
@@ -27049,10 +27063,10 @@
         <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E139" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -27079,7 +27093,7 @@
         <v>99999</v>
       </c>
       <c r="P139" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R139">
         <v>2</v>
@@ -27130,7 +27144,7 @@
         <v>-1</v>
       </c>
       <c r="AH139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI139">
         <v>0</v>
@@ -27159,10 +27173,10 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G140">
         <v>50</v>
@@ -27189,7 +27203,7 @@
         <v>999999</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -27240,7 +27254,7 @@
         <v>-1</v>
       </c>
       <c r="AH140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI140">
         <v>0</v>
@@ -27269,10 +27283,10 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G141">
         <v>80</v>
@@ -27299,7 +27313,7 @@
         <v>9999999</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R141">
         <v>2</v>
@@ -27350,7 +27364,7 @@
         <v>-1</v>
       </c>
       <c r="AH141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI141">
         <v>0</v>
@@ -27382,7 +27396,7 @@
         <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -27409,7 +27423,7 @@
         <v>999</v>
       </c>
       <c r="P142" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R142">
         <v>1</v>
@@ -27451,7 +27465,7 @@
         <v>10000000</v>
       </c>
       <c r="AE142">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AF142">
         <v>2</v>
@@ -27460,7 +27474,7 @@
         <v>-1</v>
       </c>
       <c r="AH142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI142">
         <v>0</v>
@@ -27495,7 +27509,7 @@
         <v>21</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G143">
         <v>20</v>
@@ -27522,7 +27536,7 @@
         <v>9999</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -27564,7 +27578,7 @@
         <v>10000000</v>
       </c>
       <c r="AE143">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF143">
         <v>2</v>
@@ -27573,7 +27587,7 @@
         <v>-1</v>
       </c>
       <c r="AH143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI143">
         <v>0</v>
@@ -27608,7 +27622,7 @@
         <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G144">
         <v>30</v>
@@ -27635,7 +27649,7 @@
         <v>99999</v>
       </c>
       <c r="P144" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R144">
         <v>1</v>
@@ -27677,7 +27691,7 @@
         <v>10000000</v>
       </c>
       <c r="AE144">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF144">
         <v>0</v>
@@ -27686,7 +27700,7 @@
         <v>-1</v>
       </c>
       <c r="AH144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI144">
         <v>0</v>
@@ -27721,7 +27735,7 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G145">
         <v>50</v>
@@ -27748,7 +27762,7 @@
         <v>999999</v>
       </c>
       <c r="P145" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R145">
         <v>1</v>
@@ -27790,7 +27804,7 @@
         <v>10000000</v>
       </c>
       <c r="AE145">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AF145">
         <v>0</v>
@@ -27799,7 +27813,7 @@
         <v>-1</v>
       </c>
       <c r="AH145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI145">
         <v>0</v>
@@ -27834,7 +27848,7 @@
         <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G146">
         <v>50</v>
@@ -27861,7 +27875,7 @@
         <v>9999999</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R146">
         <v>1</v>
@@ -27903,7 +27917,7 @@
         <v>10000000</v>
       </c>
       <c r="AE146">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AF146">
         <v>0</v>
@@ -27912,7 +27926,7 @@
         <v>-1</v>
       </c>
       <c r="AH146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI146">
         <v>0</v>
@@ -27930,6 +27944,446 @@
         <v>2</v>
       </c>
       <c r="AN146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:40">
+      <c r="A147">
+        <v>18501</v>
+      </c>
+      <c r="B147">
+        <v>185</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E147" t="s">
+        <v>140</v>
+      </c>
+      <c r="G147">
+        <v>10</v>
+      </c>
+      <c r="H147">
+        <v>20</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>120</v>
+      </c>
+      <c r="L147">
+        <v>20</v>
+      </c>
+      <c r="M147">
+        <v>1000</v>
+      </c>
+      <c r="N147">
+        <v>20000</v>
+      </c>
+      <c r="P147" t="s">
+        <v>133</v>
+      </c>
+      <c r="R147">
+        <v>2</v>
+      </c>
+      <c r="S147">
+        <v>5</v>
+      </c>
+      <c r="T147">
+        <v>4</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>4000</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>1</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>10000000</v>
+      </c>
+      <c r="AE147">
+        <v>0</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>-1</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>3000</v>
+      </c>
+      <c r="AL147">
+        <v>5000</v>
+      </c>
+      <c r="AM147">
+        <v>2</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:40">
+      <c r="A148">
+        <v>18502</v>
+      </c>
+      <c r="B148">
+        <v>185</v>
+      </c>
+      <c r="C148">
+        <v>2</v>
+      </c>
+      <c r="D148" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G148">
+        <v>10</v>
+      </c>
+      <c r="H148">
+        <v>20</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>500</v>
+      </c>
+      <c r="L148">
+        <v>200</v>
+      </c>
+      <c r="M148">
+        <v>20000</v>
+      </c>
+      <c r="N148">
+        <v>250000</v>
+      </c>
+      <c r="P148" t="s">
+        <v>134</v>
+      </c>
+      <c r="R148">
+        <v>2</v>
+      </c>
+      <c r="S148">
+        <v>5</v>
+      </c>
+      <c r="T148">
+        <v>4</v>
+      </c>
+      <c r="U148">
+        <v>0</v>
+      </c>
+      <c r="V148">
+        <v>0</v>
+      </c>
+      <c r="W148">
+        <v>0</v>
+      </c>
+      <c r="X148">
+        <v>4000</v>
+      </c>
+      <c r="Y148">
+        <v>0</v>
+      </c>
+      <c r="Z148">
+        <v>0</v>
+      </c>
+      <c r="AA148">
+        <v>0</v>
+      </c>
+      <c r="AB148">
+        <v>1</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AD148">
+        <v>10000000</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>1</v>
+      </c>
+      <c r="AG148">
+        <v>-1</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>4000</v>
+      </c>
+      <c r="AL148">
+        <v>5000</v>
+      </c>
+      <c r="AM148">
+        <v>2</v>
+      </c>
+      <c r="AN148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:40">
+      <c r="A149">
+        <v>18503</v>
+      </c>
+      <c r="B149">
+        <v>185</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E149" t="s">
+        <v>142</v>
+      </c>
+      <c r="G149">
+        <v>10</v>
+      </c>
+      <c r="H149">
+        <v>20</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>2000</v>
+      </c>
+      <c r="L149">
+        <v>2000</v>
+      </c>
+      <c r="M149">
+        <v>250000</v>
+      </c>
+      <c r="N149">
+        <v>10000000000</v>
+      </c>
+      <c r="P149" t="s">
+        <v>135</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>5</v>
+      </c>
+      <c r="T149">
+        <v>4</v>
+      </c>
+      <c r="U149">
+        <v>0</v>
+      </c>
+      <c r="V149">
+        <v>0</v>
+      </c>
+      <c r="W149">
+        <v>0</v>
+      </c>
+      <c r="X149">
+        <v>4000</v>
+      </c>
+      <c r="Y149">
+        <v>0</v>
+      </c>
+      <c r="Z149">
+        <v>0</v>
+      </c>
+      <c r="AA149">
+        <v>0</v>
+      </c>
+      <c r="AB149">
+        <v>1</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>10000000</v>
+      </c>
+      <c r="AE149">
+        <v>0</v>
+      </c>
+      <c r="AF149">
+        <v>0</v>
+      </c>
+      <c r="AG149">
+        <v>-1</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>10000</v>
+      </c>
+      <c r="AL149">
+        <v>20000</v>
+      </c>
+      <c r="AM149">
+        <v>2</v>
+      </c>
+      <c r="AN149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:40">
+      <c r="A150">
+        <v>18504</v>
+      </c>
+      <c r="B150">
+        <v>185</v>
+      </c>
+      <c r="C150">
+        <v>4</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E150" t="s">
+        <v>143</v>
+      </c>
+      <c r="G150">
+        <v>10</v>
+      </c>
+      <c r="H150">
+        <v>20</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>8000</v>
+      </c>
+      <c r="L150">
+        <v>10000</v>
+      </c>
+      <c r="M150">
+        <v>1000000</v>
+      </c>
+      <c r="N150">
+        <v>10000000000</v>
+      </c>
+      <c r="P150" t="s">
+        <v>118</v>
+      </c>
+      <c r="R150">
+        <v>2</v>
+      </c>
+      <c r="S150">
+        <v>5</v>
+      </c>
+      <c r="T150">
+        <v>4</v>
+      </c>
+      <c r="U150">
+        <v>0</v>
+      </c>
+      <c r="V150">
+        <v>0</v>
+      </c>
+      <c r="W150">
+        <v>0</v>
+      </c>
+      <c r="X150">
+        <v>4000</v>
+      </c>
+      <c r="Y150">
+        <v>0</v>
+      </c>
+      <c r="Z150">
+        <v>0</v>
+      </c>
+      <c r="AA150">
+        <v>0</v>
+      </c>
+      <c r="AB150">
+        <v>1</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>10000000</v>
+      </c>
+      <c r="AE150">
+        <v>0</v>
+      </c>
+      <c r="AF150">
+        <v>0</v>
+      </c>
+      <c r="AG150">
+        <v>-1</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>15000</v>
+      </c>
+      <c r="AL150">
+        <v>25000</v>
+      </c>
+      <c r="AM150">
+        <v>2</v>
+      </c>
+      <c r="AN150">
         <v>0</v>
       </c>
     </row>

--- a/config_multi.xls/game_room.xlsx
+++ b/config_multi.xls/game_room.xlsx
@@ -1,42 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\blackjack\gamedata\config_multi.xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33345A75-556F-4578-8628-0D491FD7BC68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12330" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="game_room" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>芒果</author>
     <author>ASUS</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +35,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -95,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +124,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">1. </t>
         </r>
@@ -158,7 +143,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>2.</t>
         </r>
@@ -174,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="L1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -202,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="N1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="R1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -256,7 +241,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="S1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="U1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -286,7 +271,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -302,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="V1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -318,7 +303,7 @@
             <sz val="9"/>
             <color indexed="0"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t xml:space="preserve">:
 </t>
@@ -334,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="AB1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="AC1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -363,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="AD1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -377,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="AE1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,7 +376,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="AF1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -406,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="AH1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -420,7 +405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="AI1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -434,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="AJ1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="AK1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -463,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="AL1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="AM1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="AN1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="AO1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="AP1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -531,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="AQ1" authorId="2">
       <text>
         <r>
           <rPr>
@@ -562,7 +547,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="155">
   <si>
     <t>id</t>
   </si>
@@ -676,6 +661,9 @@
   </si>
   <si>
     <t>match_time_max</t>
+  </si>
+  <si>
+    <t>result_type</t>
   </si>
   <si>
     <t>virtual_play_num</t>
@@ -1327,51 +1315,59 @@
     <t>德州扑克</t>
   </si>
   <si>
-    <t>初级场</t>
+    <t>primary</t>
   </si>
   <si>
-    <t>中级场</t>
+    <t>room1</t>
   </si>
   <si>
-    <t>高级场</t>
+    <t>senior</t>
   </si>
   <si>
-    <t>大师场</t>
+    <t>room2</t>
   </si>
   <si>
-    <t>1千-2万</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>master</t>
   </si>
   <si>
-    <t>1万-20万</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>room3</t>
   </si>
   <si>
-    <t>10万-200万</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>supreme</t>
   </si>
   <si>
-    <t>100万-2000万</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>room4</t>
   </si>
   <si>
-    <t>1000万-20亿</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>room5</t>
   </si>
   <si>
     <t>rummy</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>result_type</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <t>room6</t>
+  </si>
+  <si>
+    <t>room7</t>
+  </si>
+  <si>
+    <t>room8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1391,9 +1387,166 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <color indexed="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="18"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1417,39 +1570,206 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color indexed="0"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1466,11 +1786,253 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1479,12 +2041,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -1558,15 +2166,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1580,15 +2185,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1622,15 +2221,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1664,15 +2257,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1706,15 +2293,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1748,15 +2329,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1790,15 +2365,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1832,15 +2401,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1874,15 +2437,9 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>22225</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1916,15 +2473,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1958,15 +2509,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2000,15 +2545,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2042,15 +2581,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2084,15 +2617,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2126,15 +2653,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2168,15 +2689,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2210,15 +2725,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2252,15 +2761,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2294,15 +2797,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2336,15 +2833,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2378,15 +2869,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2420,15 +2905,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2462,15 +2941,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2504,15 +2977,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2546,15 +3013,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2588,15 +3049,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2630,15 +3085,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2672,15 +3121,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2714,15 +3157,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2756,15 +3193,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2798,15 +3229,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2840,15 +3265,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2882,15 +3301,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2924,15 +3337,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2966,15 +3373,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3008,15 +3409,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3050,15 +3445,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3092,15 +3481,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="38" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3134,15 +3517,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="39" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3176,15 +3553,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="40" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3218,15 +3589,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3260,15 +3625,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3302,15 +3661,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3344,15 +3697,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3386,15 +3733,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3428,15 +3769,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="46" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3470,15 +3805,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="47" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3512,15 +3841,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="48" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3554,15 +3877,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="49" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3596,15 +3913,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="50" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3638,15 +3949,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="51" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3680,15 +3985,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="52" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3722,15 +4021,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="53" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3764,15 +4057,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="54" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3806,15 +4093,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="55" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3848,15 +4129,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="56" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3890,15 +4165,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="57" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3932,15 +4201,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="58" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3974,15 +4237,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="59" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4016,15 +4273,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="60" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4058,15 +4309,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="61" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4100,15 +4345,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="62" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4142,15 +4381,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="63" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4184,15 +4417,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="64" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4226,15 +4453,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="65" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4268,15 +4489,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="66" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4310,15 +4525,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="67" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4352,15 +4561,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="68" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4394,15 +4597,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="69" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4436,15 +4633,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="70" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4478,15 +4669,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="71" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4520,15 +4705,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="72" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4562,15 +4741,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="73" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4604,15 +4777,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="74" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4646,15 +4813,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="75" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4688,15 +4849,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="76" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4730,15 +4885,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="77" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4772,15 +4921,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="78" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4814,15 +4957,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="79" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4856,15 +4993,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="80" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4898,15 +5029,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="81" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4940,15 +5065,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="82" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4982,15 +5101,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="83" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5024,15 +5137,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="84" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5066,15 +5173,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="85" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5108,15 +5209,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="86" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5150,15 +5245,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="87" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5192,15 +5281,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="88" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5234,15 +5317,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="89" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5276,15 +5353,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="90" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5318,15 +5389,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="91" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5360,15 +5425,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="92" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5402,15 +5461,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="93" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5444,15 +5497,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="94" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5486,15 +5533,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="95" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5528,15 +5569,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="96" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5570,15 +5605,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="97" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5612,15 +5641,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="98" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5654,15 +5677,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="99" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5696,15 +5713,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="100" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5738,15 +5749,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="101" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5780,15 +5785,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="102" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5822,15 +5821,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="103" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5864,15 +5857,9 @@
       <xdr:row>46</xdr:row>
       <xdr:rowOff>8255</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="104" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5906,15 +5893,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="105" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5948,15 +5929,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="106" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5990,15 +5965,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="107" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6032,15 +6001,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="108" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6074,15 +6037,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="109" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6116,15 +6073,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="110" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6158,15 +6109,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="111" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6200,15 +6145,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="112" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6242,15 +6181,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="113" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6284,15 +6217,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="114" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6326,15 +6253,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="115" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6368,15 +6289,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="116" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6410,15 +6325,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="117" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6452,15 +6361,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="118" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6494,15 +6397,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="119" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6536,15 +6433,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="120" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6578,15 +6469,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="121" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6620,15 +6505,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="122" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6662,15 +6541,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="123" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6704,15 +6577,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="124" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6746,15 +6613,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="125" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6788,15 +6649,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="126" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6830,15 +6685,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="127" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6872,15 +6721,9 @@
       <xdr:row>52</xdr:row>
       <xdr:rowOff>151765</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="128" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6914,15 +6757,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="129" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6956,15 +6793,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="130" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6998,15 +6829,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="131" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7040,15 +6865,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="132" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7082,15 +6901,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="133" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7124,15 +6937,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="134" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7166,15 +6973,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="135" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7208,15 +7009,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="136" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7250,15 +7045,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="137" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7292,15 +7081,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="138" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7334,15 +7117,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="139" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7376,15 +7153,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="140" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7418,15 +7189,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="141" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7460,15 +7225,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="142" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7502,15 +7261,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="143" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7544,15 +7297,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="144" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7586,15 +7333,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="145" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7628,15 +7369,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="146" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7670,15 +7405,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="147" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7712,15 +7441,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="148" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7754,15 +7477,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="149" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7796,15 +7513,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="150" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7838,15 +7549,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="151" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7880,15 +7585,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="152" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7922,15 +7621,9 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>50165</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="153" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7964,15 +7657,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="154" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8006,15 +7693,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="155" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8048,15 +7729,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="156" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8090,15 +7765,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="157" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8132,15 +7801,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="158" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8174,15 +7837,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="159" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8216,15 +7873,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="160" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8258,15 +7909,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="161" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8300,15 +7945,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="162" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8342,15 +7981,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="163" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8384,15 +8017,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="164" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8426,15 +8053,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="165" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8468,15 +8089,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="166" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8510,15 +8125,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="167" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8552,15 +8161,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="168" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8594,15 +8197,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="169" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8636,15 +8233,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="170" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8678,15 +8269,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="171" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8720,15 +8305,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="172" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8762,15 +8341,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="173" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8804,15 +8377,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="174" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8846,15 +8413,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="175" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8888,15 +8449,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="176" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8930,15 +8485,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="177" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8972,15 +8521,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="178" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9014,15 +8557,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="179" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9056,15 +8593,9 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>130810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="180" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9098,15 +8629,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="181" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9146,15 +8671,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="182" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9194,15 +8713,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="183" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9242,15 +8755,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="184" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9290,15 +8797,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="185" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9338,15 +8839,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="186" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9386,15 +8881,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="187" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9434,15 +8923,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="188" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9482,15 +8965,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="189" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9530,15 +9007,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="190" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9578,15 +9049,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="191" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9626,15 +9091,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="192" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9674,15 +9133,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C1000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="193" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9722,15 +9175,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C2000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="194" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9770,15 +9217,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C3000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="195" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9818,15 +9259,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C4000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="196" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9866,15 +9301,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C5000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="197" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9914,15 +9343,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C6000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="198" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9962,15 +9385,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="199" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10010,15 +9427,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="200" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10058,15 +9469,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000C9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="201" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10106,15 +9511,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="202" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10154,15 +9553,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CB000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="203" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10202,15 +9595,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CC000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="204" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10250,15 +9637,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CD000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="205" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10298,15 +9679,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CE000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="206" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10346,15 +9721,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000CF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="207" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10394,15 +9763,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>141605</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000D0000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="208" name="CustomShape 1" hidden="1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10442,15 +9805,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1082" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10490,15 +9847,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1080" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10538,15 +9889,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1078" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10586,15 +9931,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1076" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10634,15 +9973,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1074" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10682,15 +10015,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1072" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10730,15 +10057,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1070" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10778,15 +10099,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1068" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10826,15 +10141,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1066" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10874,15 +10183,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1064" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10922,15 +10225,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1062" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10970,15 +10267,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1060" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11018,15 +10309,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1058" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11066,15 +10351,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1056" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11114,15 +10393,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1054" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11162,15 +10435,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1052" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11210,15 +10477,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1050" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11258,15 +10519,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1048" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11306,15 +10561,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1046" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11354,15 +10603,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1044" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11402,15 +10645,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1042" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11450,15 +10687,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1040" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11498,15 +10729,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1038" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11546,15 +10771,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1036" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11594,15 +10813,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1034" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11642,15 +10855,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1032" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11690,15 +10897,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1030" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11738,15 +10939,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1028" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11786,15 +10981,9 @@
       <xdr:row>43</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="shapetype_202" hidden="1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12103,52 +11292,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AQ150"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AD122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E116" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH137" sqref="AH137:AH150"/>
+      <selection pane="bottomRight" activeCell="P148" sqref="P148:P150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="3" width="6.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
-    <col min="5" max="8" width="14.88671875" customWidth="1"/>
-    <col min="9" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="14.5546875" customWidth="1"/>
+    <col min="1" max="3" width="6.77777777777778" customWidth="1"/>
+    <col min="4" max="4" width="15.4444444444444" customWidth="1"/>
+    <col min="5" max="8" width="14.8888888888889" customWidth="1"/>
+    <col min="9" max="11" width="10.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="12.3333333333333" customWidth="1"/>
+    <col min="13" max="13" width="13.4444444444444" customWidth="1"/>
+    <col min="14" max="14" width="14.5555555555556" customWidth="1"/>
     <col min="15" max="15" width="12" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
+    <col min="16" max="16" width="20.4444444444444" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" customWidth="1"/>
+    <col min="18" max="18" width="13.3333333333333" customWidth="1"/>
+    <col min="19" max="19" width="16.5555555555556" customWidth="1"/>
     <col min="20" max="21" width="18" customWidth="1"/>
-    <col min="22" max="23" width="17.5546875" customWidth="1"/>
-    <col min="24" max="24" width="17.88671875" customWidth="1"/>
-    <col min="25" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="11.6640625" customWidth="1"/>
-    <col min="30" max="31" width="14.6640625" customWidth="1"/>
+    <col min="22" max="23" width="17.5555555555556" customWidth="1"/>
+    <col min="24" max="24" width="17.8888888888889" customWidth="1"/>
+    <col min="25" max="28" width="10.4444444444444" customWidth="1"/>
+    <col min="29" max="29" width="11.6666666666667" customWidth="1"/>
+    <col min="30" max="31" width="14.6666666666667" customWidth="1"/>
     <col min="32" max="33" width="15" customWidth="1"/>
-    <col min="34" max="36" width="10.44140625" customWidth="1"/>
-    <col min="37" max="37" width="15.44140625" customWidth="1"/>
-    <col min="38" max="38" width="20.6640625" customWidth="1"/>
-    <col min="39" max="39" width="10.44140625" customWidth="1"/>
-    <col min="40" max="40" width="15.109375" customWidth="1"/>
-    <col min="41" max="41" width="14.44140625" customWidth="1"/>
-    <col min="42" max="1026" width="10.44140625" customWidth="1"/>
+    <col min="34" max="36" width="10.4444444444444" customWidth="1"/>
+    <col min="37" max="37" width="15.4444444444444" customWidth="1"/>
+    <col min="38" max="38" width="20.6666666666667" customWidth="1"/>
+    <col min="39" max="39" width="10.4444444444444" customWidth="1"/>
+    <col min="40" max="40" width="15.1111111111111" customWidth="1"/>
+    <col min="41" max="41" width="14.4444444444444" customWidth="1"/>
+    <col min="42" max="1026" width="10.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="1" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="15.75" customHeight="1" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12264,22 +11454,22 @@
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>150</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:40">
       <c r="A2">
         <v>1301</v>
       </c>
@@ -12290,10 +11480,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -12317,7 +11507,7 @@
         <v>10000000000</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2">
         <v>4</v>
@@ -12389,7 +11579,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="3" spans="1:43">
+    <row r="3" spans="1:40">
       <c r="A3">
         <v>1302</v>
       </c>
@@ -12400,10 +11590,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G3">
         <v>20</v>
@@ -12427,7 +11617,7 @@
         <v>10000000000</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R3">
         <v>4</v>
@@ -12499,7 +11689,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="4" spans="1:43">
+    <row r="4" spans="1:40">
       <c r="A4">
         <v>1303</v>
       </c>
@@ -12510,10 +11700,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -12537,7 +11727,7 @@
         <v>10000000000</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R4">
         <v>4</v>
@@ -12609,7 +11799,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="5" spans="1:43">
+    <row r="5" spans="1:40">
       <c r="A5">
         <v>1304</v>
       </c>
@@ -12620,10 +11810,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>50</v>
@@ -12647,7 +11837,7 @@
         <v>10000000000</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R5">
         <v>4</v>
@@ -12719,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43">
+    <row r="6" spans="1:40">
       <c r="A6">
         <v>2301</v>
       </c>
@@ -12730,10 +11920,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -12757,7 +11947,7 @@
         <v>10000000000</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6">
         <v>4</v>
@@ -12829,7 +12019,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="7" spans="1:43">
+    <row r="7" spans="1:40">
       <c r="A7">
         <v>2302</v>
       </c>
@@ -12840,10 +12030,10 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -12867,7 +12057,7 @@
         <v>10000000000</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R7">
         <v>4</v>
@@ -12939,7 +12129,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:43">
+    <row r="8" spans="1:40">
       <c r="A8">
         <v>2303</v>
       </c>
@@ -12950,13 +12140,13 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>30</v>
@@ -12980,7 +12170,7 @@
         <v>10000000000</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R8">
         <v>2</v>
@@ -13052,7 +12242,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:43">
+    <row r="9" spans="1:40">
       <c r="A9">
         <v>2304</v>
       </c>
@@ -13063,13 +12253,13 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9">
         <v>50</v>
@@ -13093,7 +12283,7 @@
         <v>10000000000</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R9">
         <v>2</v>
@@ -13165,7 +12355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43">
+    <row r="10" spans="1:40">
       <c r="A10">
         <v>3201</v>
       </c>
@@ -13176,10 +12366,10 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10">
         <v>10</v>
@@ -13203,7 +12393,7 @@
         <v>10000000000</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R10">
         <v>3</v>
@@ -13275,7 +12465,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:43">
+    <row r="11" spans="1:40">
       <c r="A11">
         <v>3202</v>
       </c>
@@ -13286,10 +12476,10 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G11">
         <v>20</v>
@@ -13313,7 +12503,7 @@
         <v>10000000000</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R11">
         <v>3</v>
@@ -13385,7 +12575,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="12" spans="1:43">
+    <row r="12" spans="1:40">
       <c r="A12">
         <v>3203</v>
       </c>
@@ -13396,10 +12586,10 @@
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -13423,7 +12613,7 @@
         <v>10000000000</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R12">
         <v>3</v>
@@ -13495,7 +12685,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="13" spans="1:43">
+    <row r="13" spans="1:40">
       <c r="A13">
         <v>3204</v>
       </c>
@@ -13506,10 +12696,10 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>50</v>
@@ -13533,7 +12723,7 @@
         <v>10000000000</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R13">
         <v>3</v>
@@ -13605,7 +12795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43">
+    <row r="14" spans="1:42">
       <c r="A14">
         <v>10101</v>
       </c>
@@ -13616,10 +12806,10 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -13638,7 +12828,7 @@
         <v>99999</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R14">
         <v>1</v>
@@ -13707,7 +12897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:43">
+    <row r="15" spans="1:42">
       <c r="A15">
         <v>10102</v>
       </c>
@@ -13718,10 +12908,10 @@
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -13740,7 +12930,7 @@
         <v>999999</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R15">
         <v>1</v>
@@ -13809,7 +12999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:43">
+    <row r="16" spans="1:42">
       <c r="A16">
         <v>10103</v>
       </c>
@@ -13820,10 +13010,10 @@
         <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -13842,7 +13032,7 @@
         <v>1999999</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R16">
         <v>1</v>
@@ -13922,10 +13112,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -13943,7 +13133,7 @@
         <v>10000000000</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R17">
         <v>1</v>
@@ -14012,7 +13202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42">
+    <row r="18" spans="1:40">
       <c r="A18">
         <v>5101</v>
       </c>
@@ -14023,10 +13213,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18">
         <v>10</v>
@@ -14050,7 +13240,7 @@
         <v>10000000000</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R18">
         <v>2</v>
@@ -14116,7 +13306,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="19" spans="1:42">
+    <row r="19" spans="1:40">
       <c r="A19">
         <v>5102</v>
       </c>
@@ -14127,10 +13317,10 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -14154,7 +13344,7 @@
         <v>10000000000</v>
       </c>
       <c r="P19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R19">
         <v>2</v>
@@ -14220,7 +13410,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="20" spans="1:42">
+    <row r="20" spans="1:40">
       <c r="A20">
         <v>5103</v>
       </c>
@@ -14231,10 +13421,10 @@
         <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -14258,7 +13448,7 @@
         <v>10000000000</v>
       </c>
       <c r="P20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R20">
         <v>2</v>
@@ -14324,7 +13514,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="21" spans="1:42">
+    <row r="21" spans="1:40">
       <c r="A21">
         <v>5104</v>
       </c>
@@ -14335,10 +13525,10 @@
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21">
         <v>50</v>
@@ -14362,7 +13552,7 @@
         <v>10000000000</v>
       </c>
       <c r="P21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R21">
         <v>2</v>
@@ -14428,7 +13618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:42">
+    <row r="22" spans="1:40">
       <c r="A22">
         <v>15001</v>
       </c>
@@ -14439,10 +13629,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G22">
         <v>50</v>
@@ -14466,7 +13656,7 @@
         <v>10000000000</v>
       </c>
       <c r="P22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="R22">
         <v>2</v>
@@ -14532,7 +13722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:42">
+    <row r="23" spans="1:40">
       <c r="A23">
         <v>5601</v>
       </c>
@@ -14543,10 +13733,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G23">
         <v>10</v>
@@ -14570,7 +13760,7 @@
         <v>10000000000</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R23">
         <v>4</v>
@@ -14642,7 +13832,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="24" spans="1:42">
+    <row r="24" spans="1:40">
       <c r="A24">
         <v>5602</v>
       </c>
@@ -14653,10 +13843,10 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G24">
         <v>20</v>
@@ -14680,7 +13870,7 @@
         <v>10000000000</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R24">
         <v>4</v>
@@ -14752,7 +13942,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="25" spans="1:42">
+    <row r="25" spans="1:40">
       <c r="A25">
         <v>5603</v>
       </c>
@@ -14763,13 +13953,13 @@
         <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25">
         <v>30</v>
@@ -14793,7 +13983,7 @@
         <v>10000000000</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -14865,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:42">
+    <row r="26" spans="1:40">
       <c r="A26">
         <v>5604</v>
       </c>
@@ -14876,13 +14066,13 @@
         <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26">
         <v>50</v>
@@ -14906,7 +14096,7 @@
         <v>10000000000</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R26">
         <v>2</v>
@@ -14978,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:42">
+    <row r="27" spans="1:40">
       <c r="A27">
         <v>6101</v>
       </c>
@@ -14989,10 +14179,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -15016,7 +14206,7 @@
         <v>10000000000</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R27">
         <v>4</v>
@@ -15088,7 +14278,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="1:42">
+    <row r="28" spans="1:40">
       <c r="A28">
         <v>6102</v>
       </c>
@@ -15099,10 +14289,10 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G28">
         <v>20</v>
@@ -15126,7 +14316,7 @@
         <v>10000000000</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -15198,7 +14388,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="29" spans="1:42">
+    <row r="29" spans="1:40">
       <c r="A29">
         <v>6103</v>
       </c>
@@ -15209,10 +14399,10 @@
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29">
         <v>30</v>
@@ -15236,7 +14426,7 @@
         <v>10000000000</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R29">
         <v>4</v>
@@ -15308,7 +14498,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="30" spans="1:42">
+    <row r="30" spans="1:40">
       <c r="A30">
         <v>6104</v>
       </c>
@@ -15319,10 +14509,10 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30">
         <v>50</v>
@@ -15346,7 +14536,7 @@
         <v>10000000000</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R30">
         <v>4</v>
@@ -15418,7 +14608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:42">
+    <row r="31" spans="1:40">
       <c r="A31">
         <v>15901</v>
       </c>
@@ -15429,10 +14619,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G31">
         <v>10</v>
@@ -15456,7 +14646,7 @@
         <v>10000000000</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R31">
         <v>4</v>
@@ -15528,7 +14718,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="32" spans="1:42">
+    <row r="32" spans="1:40">
       <c r="A32">
         <v>15902</v>
       </c>
@@ -15539,10 +14729,10 @@
         <v>2</v>
       </c>
       <c r="D32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G32">
         <v>20</v>
@@ -15566,7 +14756,7 @@
         <v>10000000000</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R32">
         <v>4</v>
@@ -15638,7 +14828,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="33" spans="1:42">
+    <row r="33" spans="1:40">
       <c r="A33">
         <v>15903</v>
       </c>
@@ -15649,10 +14839,10 @@
         <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33">
         <v>30</v>
@@ -15676,7 +14866,7 @@
         <v>10000000000</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R33">
         <v>4</v>
@@ -15748,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:42">
+    <row r="34" spans="1:40">
       <c r="A34">
         <v>15904</v>
       </c>
@@ -15759,10 +14949,10 @@
         <v>4</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34">
         <v>50</v>
@@ -15786,7 +14976,7 @@
         <v>10000000000</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R34">
         <v>4</v>
@@ -15858,7 +15048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:42">
+    <row r="35" spans="1:40">
       <c r="A35">
         <v>10801</v>
       </c>
@@ -15869,10 +15059,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J35">
         <v>2</v>
@@ -15890,7 +15080,7 @@
         <v>10000000000</v>
       </c>
       <c r="P35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R35">
         <v>1</v>
@@ -15967,10 +15157,10 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -15988,7 +15178,7 @@
         <v>10000000000</v>
       </c>
       <c r="P36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R36">
         <v>8</v>
@@ -16057,7 +15247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:42">
+    <row r="37" spans="1:40">
       <c r="A37">
         <v>13501</v>
       </c>
@@ -16068,10 +15258,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G37">
         <v>10</v>
@@ -16095,7 +15285,7 @@
         <v>10000000000</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R37">
         <v>2</v>
@@ -16161,7 +15351,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:42">
+    <row r="38" spans="1:40">
       <c r="A38">
         <v>13502</v>
       </c>
@@ -16172,10 +15362,10 @@
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G38">
         <v>20</v>
@@ -16199,7 +15389,7 @@
         <v>10000000000</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R38">
         <v>2</v>
@@ -16265,7 +15455,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="39" spans="1:42">
+    <row r="39" spans="1:40">
       <c r="A39">
         <v>13503</v>
       </c>
@@ -16276,10 +15466,10 @@
         <v>3</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -16303,7 +15493,7 @@
         <v>10000000000</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R39">
         <v>2</v>
@@ -16369,7 +15559,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="40" spans="1:42">
+    <row r="40" spans="1:40">
       <c r="A40">
         <v>13504</v>
       </c>
@@ -16380,10 +15570,10 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40">
         <v>50</v>
@@ -16407,7 +15597,7 @@
         <v>10000000000</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="R40">
         <v>2</v>
@@ -16473,7 +15663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:42">
+    <row r="41" spans="1:40">
       <c r="A41">
         <v>4101</v>
       </c>
@@ -16484,10 +15674,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G41">
         <v>10</v>
@@ -16511,7 +15701,7 @@
         <v>10000000000</v>
       </c>
       <c r="P41" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R41">
         <v>2</v>
@@ -16577,7 +15767,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="42" spans="1:42">
+    <row r="42" spans="1:40">
       <c r="A42">
         <v>4102</v>
       </c>
@@ -16588,10 +15778,10 @@
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G42">
         <v>20</v>
@@ -16615,7 +15805,7 @@
         <v>10000000000</v>
       </c>
       <c r="P42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="R42">
         <v>2</v>
@@ -16681,7 +15871,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:42">
+    <row r="43" spans="1:40">
       <c r="A43">
         <v>4103</v>
       </c>
@@ -16692,10 +15882,10 @@
         <v>3</v>
       </c>
       <c r="D43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G43">
         <v>30</v>
@@ -16719,7 +15909,7 @@
         <v>10000000000</v>
       </c>
       <c r="P43" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="R43">
         <v>2</v>
@@ -16785,7 +15975,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="44" spans="1:42">
+    <row r="44" spans="1:40">
       <c r="A44">
         <v>4104</v>
       </c>
@@ -16796,10 +15986,10 @@
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G44">
         <v>50</v>
@@ -16823,7 +16013,7 @@
         <v>10000000000</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -16889,7 +16079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:42">
+    <row r="45" spans="1:40">
       <c r="A45">
         <v>16301</v>
       </c>
@@ -16900,10 +16090,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G45">
         <v>10</v>
@@ -16927,7 +16117,7 @@
         <v>10000000000</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -16999,7 +16189,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="1:42">
+    <row r="46" spans="1:40">
       <c r="A46">
         <v>16302</v>
       </c>
@@ -17010,10 +16200,10 @@
         <v>2</v>
       </c>
       <c r="D46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G46">
         <v>20</v>
@@ -17037,7 +16227,7 @@
         <v>10000000000</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="R46">
         <v>2</v>
@@ -17109,7 +16299,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="47" spans="1:42">
+    <row r="47" spans="1:40">
       <c r="A47">
         <v>16303</v>
       </c>
@@ -17120,10 +16310,10 @@
         <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G47">
         <v>30</v>
@@ -17147,7 +16337,7 @@
         <v>10000000000</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="R47">
         <v>2</v>
@@ -17219,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:42">
+    <row r="48" spans="1:40">
       <c r="A48">
         <v>16304</v>
       </c>
@@ -17230,10 +16420,10 @@
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48">
         <v>50</v>
@@ -17257,7 +16447,7 @@
         <v>10000000000</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="R48">
         <v>2</v>
@@ -17340,10 +16530,10 @@
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G49">
         <v>10</v>
@@ -17367,7 +16557,7 @@
         <v>10000000000</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R49">
         <v>4</v>
@@ -17450,10 +16640,10 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G50">
         <v>20</v>
@@ -17477,7 +16667,7 @@
         <v>10000000000</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R50">
         <v>4</v>
@@ -17560,13 +16750,13 @@
         <v>3</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G51">
         <v>30</v>
@@ -17590,7 +16780,7 @@
         <v>10000000000</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R51">
         <v>2</v>
@@ -17673,13 +16863,13 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G52">
         <v>50</v>
@@ -17703,7 +16893,7 @@
         <v>10000000000</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R52">
         <v>2</v>
@@ -17786,10 +16976,10 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -17807,7 +16997,7 @@
         <v>99999</v>
       </c>
       <c r="P53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -17884,10 +17074,10 @@
         <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -17905,7 +17095,7 @@
         <v>999999</v>
       </c>
       <c r="P54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -17982,10 +17172,10 @@
         <v>3</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -18003,7 +17193,7 @@
         <v>1999999</v>
       </c>
       <c r="P55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -18080,10 +17270,10 @@
         <v>4</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -18101,7 +17291,7 @@
         <v>10000000000</v>
       </c>
       <c r="P56" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -18178,10 +17368,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G57">
         <v>10</v>
@@ -18205,7 +17395,7 @@
         <v>10000000000</v>
       </c>
       <c r="P57" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R57">
         <v>4</v>
@@ -18288,10 +17478,10 @@
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G58">
         <v>20</v>
@@ -18315,7 +17505,7 @@
         <v>10000000000</v>
       </c>
       <c r="P58" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R58">
         <v>4</v>
@@ -18398,10 +17588,10 @@
         <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G59">
         <v>30</v>
@@ -18425,7 +17615,7 @@
         <v>10000000000</v>
       </c>
       <c r="P59" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R59">
         <v>4</v>
@@ -18508,10 +17698,10 @@
         <v>4</v>
       </c>
       <c r="D60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60">
         <v>50</v>
@@ -18535,7 +17725,7 @@
         <v>10000000000</v>
       </c>
       <c r="P60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R60">
         <v>4</v>
@@ -18618,10 +17808,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>10</v>
@@ -18645,7 +17835,7 @@
         <v>10000000000</v>
       </c>
       <c r="P61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R61">
         <v>4</v>
@@ -18728,10 +17918,10 @@
         <v>2</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>20</v>
@@ -18755,7 +17945,7 @@
         <v>10000000000</v>
       </c>
       <c r="P62" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R62">
         <v>4</v>
@@ -18838,10 +18028,10 @@
         <v>3</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G63">
         <v>30</v>
@@ -18865,7 +18055,7 @@
         <v>10000000000</v>
       </c>
       <c r="P63" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R63">
         <v>4</v>
@@ -18948,10 +18138,10 @@
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E64" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64">
         <v>50</v>
@@ -18975,7 +18165,7 @@
         <v>10000000000</v>
       </c>
       <c r="P64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R64">
         <v>4</v>
@@ -19047,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:42">
+    <row r="65" spans="1:40">
       <c r="A65">
         <v>14201</v>
       </c>
@@ -19058,10 +18248,10 @@
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G65">
         <v>10</v>
@@ -19085,7 +18275,7 @@
         <v>10000000000</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R65">
         <v>4</v>
@@ -19157,7 +18347,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="66" spans="1:42">
+    <row r="66" spans="1:40">
       <c r="A66">
         <v>14202</v>
       </c>
@@ -19168,10 +18358,10 @@
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G66">
         <v>20</v>
@@ -19195,7 +18385,7 @@
         <v>10000000000</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R66">
         <v>4</v>
@@ -19267,7 +18457,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="67" spans="1:42">
+    <row r="67" spans="1:40">
       <c r="A67">
         <v>14203</v>
       </c>
@@ -19278,10 +18468,10 @@
         <v>3</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G67">
         <v>30</v>
@@ -19305,7 +18495,7 @@
         <v>10000000000</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R67">
         <v>4</v>
@@ -19377,7 +18567,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="68" spans="1:42">
+    <row r="68" spans="1:40">
       <c r="A68">
         <v>14204</v>
       </c>
@@ -19388,10 +18578,10 @@
         <v>4</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68">
         <v>50</v>
@@ -19415,7 +18605,7 @@
         <v>10000000000</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R68">
         <v>4</v>
@@ -19498,10 +18688,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J69">
         <v>2</v>
@@ -19522,7 +18712,7 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R69">
         <v>1</v>
@@ -19591,7 +18781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:42">
+    <row r="70" spans="1:40">
       <c r="A70">
         <v>14301</v>
       </c>
@@ -19602,10 +18792,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J70">
         <v>2</v>
@@ -19623,7 +18813,7 @@
         <v>10000000000</v>
       </c>
       <c r="P70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R70">
         <v>10</v>
@@ -19689,7 +18879,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="71" spans="1:42">
+    <row r="71" spans="1:40">
       <c r="A71">
         <v>4301</v>
       </c>
@@ -19700,10 +18890,10 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J71">
         <v>2</v>
@@ -19781,7 +18971,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="72" spans="1:42">
+    <row r="72" spans="1:40">
       <c r="A72">
         <v>16901</v>
       </c>
@@ -19792,10 +18982,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G72">
         <v>10</v>
@@ -19819,7 +19009,7 @@
         <v>10000000000</v>
       </c>
       <c r="P72" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R72">
         <v>4</v>
@@ -19891,7 +19081,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="73" spans="1:42">
+    <row r="73" spans="1:40">
       <c r="A73">
         <v>16902</v>
       </c>
@@ -19902,10 +19092,10 @@
         <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G73">
         <v>20</v>
@@ -19929,7 +19119,7 @@
         <v>10000000000</v>
       </c>
       <c r="P73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R73">
         <v>4</v>
@@ -20001,7 +19191,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="74" spans="1:42">
+    <row r="74" spans="1:40">
       <c r="A74">
         <v>16903</v>
       </c>
@@ -20012,10 +19202,10 @@
         <v>3</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G74">
         <v>30</v>
@@ -20039,7 +19229,7 @@
         <v>10000000000</v>
       </c>
       <c r="P74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R74">
         <v>4</v>
@@ -20111,7 +19301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:42">
+    <row r="75" spans="1:40">
       <c r="A75">
         <v>16904</v>
       </c>
@@ -20122,10 +19312,10 @@
         <v>4</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75">
         <v>50</v>
@@ -20149,7 +19339,7 @@
         <v>10000000000</v>
       </c>
       <c r="P75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R75">
         <v>4</v>
@@ -20221,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:42">
+    <row r="76" spans="1:41">
       <c r="A76">
         <v>13601</v>
       </c>
@@ -20232,10 +19422,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>10</v>
@@ -20262,7 +19452,7 @@
         <v>1000</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R76">
         <v>2</v>
@@ -20331,7 +19521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:42">
+    <row r="77" spans="1:41">
       <c r="A77">
         <v>13602</v>
       </c>
@@ -20342,10 +19532,10 @@
         <v>2</v>
       </c>
       <c r="D77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G77">
         <v>20</v>
@@ -20372,7 +19562,7 @@
         <v>10000</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R77">
         <v>2</v>
@@ -20441,7 +19631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:42">
+    <row r="78" spans="1:41">
       <c r="A78">
         <v>13603</v>
       </c>
@@ -20452,10 +19642,10 @@
         <v>3</v>
       </c>
       <c r="D78" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G78">
         <v>30</v>
@@ -20482,7 +19672,7 @@
         <v>50000</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R78">
         <v>2</v>
@@ -20551,7 +19741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:42">
+    <row r="79" spans="1:40">
       <c r="A79">
         <v>17101</v>
       </c>
@@ -20562,10 +19752,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>10</v>
@@ -20589,7 +19779,7 @@
         <v>10000000000</v>
       </c>
       <c r="P79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R79">
         <v>4</v>
@@ -20661,7 +19851,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="80" spans="1:42">
+    <row r="80" spans="1:40">
       <c r="A80">
         <v>17102</v>
       </c>
@@ -20672,10 +19862,10 @@
         <v>2</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G80">
         <v>20</v>
@@ -20699,7 +19889,7 @@
         <v>10000000000</v>
       </c>
       <c r="P80" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R80">
         <v>4</v>
@@ -20771,7 +19961,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:40">
       <c r="A81">
         <v>17103</v>
       </c>
@@ -20782,10 +19972,10 @@
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G81">
         <v>30</v>
@@ -20809,7 +19999,7 @@
         <v>10000000000</v>
       </c>
       <c r="P81" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R81">
         <v>4</v>
@@ -20881,7 +20071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:40">
       <c r="A82">
         <v>17104</v>
       </c>
@@ -20892,10 +20082,10 @@
         <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>50</v>
@@ -20919,7 +20109,7 @@
         <v>10000000000</v>
       </c>
       <c r="P82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R82">
         <v>4</v>
@@ -20991,7 +20181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:40">
       <c r="A83">
         <v>17201</v>
       </c>
@@ -21002,10 +20192,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E83" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G83">
         <v>10</v>
@@ -21029,7 +20219,7 @@
         <v>10000000000</v>
       </c>
       <c r="P83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R83">
         <v>4</v>
@@ -21101,7 +20291,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:40">
       <c r="A84">
         <v>17202</v>
       </c>
@@ -21112,10 +20302,10 @@
         <v>2</v>
       </c>
       <c r="D84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G84">
         <v>20</v>
@@ -21139,7 +20329,7 @@
         <v>10000000000</v>
       </c>
       <c r="P84" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R84">
         <v>4</v>
@@ -21211,7 +20401,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:40">
       <c r="A85">
         <v>17203</v>
       </c>
@@ -21222,10 +20412,10 @@
         <v>3</v>
       </c>
       <c r="D85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G85">
         <v>30</v>
@@ -21249,7 +20439,7 @@
         <v>10000000000</v>
       </c>
       <c r="P85" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R85">
         <v>4</v>
@@ -21321,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:40">
       <c r="A86">
         <v>17204</v>
       </c>
@@ -21332,10 +20522,10 @@
         <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G86">
         <v>50</v>
@@ -21359,7 +20549,7 @@
         <v>10000000000</v>
       </c>
       <c r="P86" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R86">
         <v>4</v>
@@ -21431,7 +20621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:40">
       <c r="A87">
         <v>17301</v>
       </c>
@@ -21442,10 +20632,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G87">
         <v>10</v>
@@ -21469,7 +20659,7 @@
         <v>10000000000</v>
       </c>
       <c r="P87" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R87">
         <v>4</v>
@@ -21541,7 +20731,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:40">
       <c r="A88">
         <v>17302</v>
       </c>
@@ -21552,10 +20742,10 @@
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G88">
         <v>20</v>
@@ -21579,7 +20769,7 @@
         <v>10000000000</v>
       </c>
       <c r="P88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R88">
         <v>4</v>
@@ -21651,7 +20841,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:40">
       <c r="A89">
         <v>17303</v>
       </c>
@@ -21662,10 +20852,10 @@
         <v>3</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G89">
         <v>30</v>
@@ -21689,7 +20879,7 @@
         <v>10000000000</v>
       </c>
       <c r="P89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R89">
         <v>4</v>
@@ -21761,7 +20951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:40">
       <c r="A90">
         <v>17304</v>
       </c>
@@ -21772,10 +20962,10 @@
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G90">
         <v>50</v>
@@ -21799,7 +20989,7 @@
         <v>10000000000</v>
       </c>
       <c r="P90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R90">
         <v>4</v>
@@ -21871,7 +21061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:40">
       <c r="A91">
         <v>17501</v>
       </c>
@@ -21882,10 +21072,10 @@
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G91">
         <v>10</v>
@@ -21909,7 +21099,7 @@
         <v>10000000000</v>
       </c>
       <c r="P91" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R91">
         <v>4</v>
@@ -21981,7 +21171,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:40">
       <c r="A92">
         <v>17502</v>
       </c>
@@ -21992,10 +21182,10 @@
         <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G92">
         <v>20</v>
@@ -22019,7 +21209,7 @@
         <v>10000000000</v>
       </c>
       <c r="P92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R92">
         <v>4</v>
@@ -22091,7 +21281,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:40">
       <c r="A93">
         <v>17503</v>
       </c>
@@ -22102,10 +21292,10 @@
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G93">
         <v>30</v>
@@ -22129,7 +21319,7 @@
         <v>10000000000</v>
       </c>
       <c r="P93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R93">
         <v>4</v>
@@ -22201,7 +21391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:40">
       <c r="A94">
         <v>17504</v>
       </c>
@@ -22212,10 +21402,10 @@
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E94" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G94">
         <v>50</v>
@@ -22239,7 +21429,7 @@
         <v>10000000000</v>
       </c>
       <c r="P94" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R94">
         <v>4</v>
@@ -22322,10 +21512,10 @@
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J95">
         <v>2</v>
@@ -22346,7 +21536,7 @@
         <v>100</v>
       </c>
       <c r="P95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R95">
         <v>1</v>
@@ -22415,7 +21605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:40">
       <c r="A96">
         <v>17601</v>
       </c>
@@ -22426,10 +21616,10 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G96">
         <v>10</v>
@@ -22453,7 +21643,7 @@
         <v>10000000000</v>
       </c>
       <c r="P96" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R96">
         <v>4</v>
@@ -22525,7 +21715,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="97" spans="1:42">
+    <row r="97" spans="1:40">
       <c r="A97">
         <v>17602</v>
       </c>
@@ -22536,10 +21726,10 @@
         <v>2</v>
       </c>
       <c r="D97" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G97">
         <v>20</v>
@@ -22563,7 +21753,7 @@
         <v>10000000000</v>
       </c>
       <c r="P97" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R97">
         <v>4</v>
@@ -22635,7 +21825,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="98" spans="1:42">
+    <row r="98" spans="1:40">
       <c r="A98">
         <v>17603</v>
       </c>
@@ -22646,10 +21836,10 @@
         <v>3</v>
       </c>
       <c r="D98" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G98">
         <v>30</v>
@@ -22673,7 +21863,7 @@
         <v>10000000000</v>
       </c>
       <c r="P98" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R98">
         <v>4</v>
@@ -22745,7 +21935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:42">
+    <row r="99" spans="1:40">
       <c r="A99">
         <v>17604</v>
       </c>
@@ -22756,10 +21946,10 @@
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E99" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G99">
         <v>50</v>
@@ -22783,7 +21973,7 @@
         <v>10000000000</v>
       </c>
       <c r="P99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R99">
         <v>4</v>
@@ -22855,7 +22045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:42">
+    <row r="100" spans="1:40">
       <c r="A100">
         <v>17801</v>
       </c>
@@ -22866,10 +22056,10 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G100">
         <v>10</v>
@@ -22893,7 +22083,7 @@
         <v>10000000000</v>
       </c>
       <c r="P100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R100">
         <v>4</v>
@@ -22965,7 +22155,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="101" spans="1:42">
+    <row r="101" spans="1:40">
       <c r="A101">
         <v>17802</v>
       </c>
@@ -22976,10 +22166,10 @@
         <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G101">
         <v>20</v>
@@ -23003,7 +22193,7 @@
         <v>10000000000</v>
       </c>
       <c r="P101" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R101">
         <v>4</v>
@@ -23075,7 +22265,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="102" spans="1:42">
+    <row r="102" spans="1:40">
       <c r="A102">
         <v>17803</v>
       </c>
@@ -23086,10 +22276,10 @@
         <v>3</v>
       </c>
       <c r="D102" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G102">
         <v>30</v>
@@ -23113,7 +22303,7 @@
         <v>10000000000</v>
       </c>
       <c r="P102" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R102">
         <v>4</v>
@@ -23185,7 +22375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:42">
+    <row r="103" spans="1:40">
       <c r="A103">
         <v>17804</v>
       </c>
@@ -23196,10 +22386,10 @@
         <v>4</v>
       </c>
       <c r="D103" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G103">
         <v>50</v>
@@ -23223,7 +22413,7 @@
         <v>10000000000</v>
       </c>
       <c r="P103" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R103">
         <v>4</v>
@@ -23306,10 +22496,10 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E104" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J104">
         <v>1</v>
@@ -23327,7 +22517,7 @@
         <v>10000000000</v>
       </c>
       <c r="P104" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="R104">
         <v>1</v>
@@ -23407,10 +22597,10 @@
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E105" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J105">
         <v>1</v>
@@ -23428,7 +22618,7 @@
         <v>10000000000</v>
       </c>
       <c r="P105" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R105">
         <v>1</v>
@@ -23508,10 +22698,10 @@
         <v>3</v>
       </c>
       <c r="D106" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E106" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -23529,7 +22719,7 @@
         <v>10000000000</v>
       </c>
       <c r="P106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R106">
         <v>1</v>
@@ -23609,10 +22799,10 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E107" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -23630,7 +22820,7 @@
         <v>10000000000</v>
       </c>
       <c r="P107" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R107">
         <v>1</v>
@@ -23710,10 +22900,10 @@
         <v>5</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E108" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J108">
         <v>1</v>
@@ -23731,7 +22921,7 @@
         <v>10000000000</v>
       </c>
       <c r="P108" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="R108">
         <v>1</v>
@@ -23800,7 +22990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:42">
+    <row r="109" spans="1:40">
       <c r="A109">
         <v>17901</v>
       </c>
@@ -23811,10 +23001,10 @@
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G109">
         <v>10</v>
@@ -23838,7 +23028,7 @@
         <v>10000000000</v>
       </c>
       <c r="P109" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R109">
         <v>4</v>
@@ -23910,7 +23100,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="110" spans="1:42">
+    <row r="110" spans="1:40">
       <c r="A110">
         <v>17902</v>
       </c>
@@ -23921,10 +23111,10 @@
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G110">
         <v>20</v>
@@ -23948,7 +23138,7 @@
         <v>10000000000</v>
       </c>
       <c r="P110" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R110">
         <v>4</v>
@@ -24020,7 +23210,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="111" spans="1:42">
+    <row r="111" spans="1:40">
       <c r="A111">
         <v>17903</v>
       </c>
@@ -24031,10 +23221,10 @@
         <v>3</v>
       </c>
       <c r="D111" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G111">
         <v>30</v>
@@ -24058,7 +23248,7 @@
         <v>10000000000</v>
       </c>
       <c r="P111" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R111">
         <v>4</v>
@@ -24130,7 +23320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:42">
+    <row r="112" spans="1:40">
       <c r="A112">
         <v>17904</v>
       </c>
@@ -24141,10 +23331,10 @@
         <v>4</v>
       </c>
       <c r="D112" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E112" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G112">
         <v>50</v>
@@ -24168,7 +23358,7 @@
         <v>10000000000</v>
       </c>
       <c r="P112" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R112">
         <v>4</v>
@@ -24240,7 +23430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:43">
+    <row r="113" spans="1:40">
       <c r="A113">
         <v>18101</v>
       </c>
@@ -24251,10 +23441,10 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G113">
         <v>10</v>
@@ -24278,7 +23468,7 @@
         <v>10000000000</v>
       </c>
       <c r="P113" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R113">
         <v>4</v>
@@ -24350,7 +23540,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="114" spans="1:43">
+    <row r="114" spans="1:40">
       <c r="A114">
         <v>18102</v>
       </c>
@@ -24361,10 +23551,10 @@
         <v>2</v>
       </c>
       <c r="D114" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G114">
         <v>20</v>
@@ -24388,7 +23578,7 @@
         <v>10000000000</v>
       </c>
       <c r="P114" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R114">
         <v>4</v>
@@ -24460,7 +23650,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="115" spans="1:43">
+    <row r="115" spans="1:40">
       <c r="A115">
         <v>18103</v>
       </c>
@@ -24471,10 +23661,10 @@
         <v>3</v>
       </c>
       <c r="D115" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G115">
         <v>30</v>
@@ -24498,7 +23688,7 @@
         <v>10000000000</v>
       </c>
       <c r="P115" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R115">
         <v>4</v>
@@ -24570,7 +23760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:43">
+    <row r="116" spans="1:40">
       <c r="A116">
         <v>18104</v>
       </c>
@@ -24581,10 +23771,10 @@
         <v>4</v>
       </c>
       <c r="D116" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E116" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G116">
         <v>50</v>
@@ -24608,7 +23798,7 @@
         <v>10000000000</v>
       </c>
       <c r="P116" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R116">
         <v>4</v>
@@ -24680,7 +23870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:43">
+    <row r="117" spans="1:42">
       <c r="A117">
         <v>10501</v>
       </c>
@@ -24691,10 +23881,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E117" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -24715,7 +23905,7 @@
         <v>100</v>
       </c>
       <c r="P117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R117">
         <v>1</v>
@@ -24784,7 +23974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:43">
+    <row r="118" spans="1:40">
       <c r="A118">
         <v>18201</v>
       </c>
@@ -24795,10 +23985,10 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G118">
         <v>10</v>
@@ -24822,7 +24012,7 @@
         <v>10000000000</v>
       </c>
       <c r="P118" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R118">
         <v>4</v>
@@ -24894,7 +24084,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="119" spans="1:43">
+    <row r="119" spans="1:40">
       <c r="A119">
         <v>18202</v>
       </c>
@@ -24905,10 +24095,10 @@
         <v>2</v>
       </c>
       <c r="D119" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E119" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G119">
         <v>20</v>
@@ -24932,7 +24122,7 @@
         <v>10000000000</v>
       </c>
       <c r="P119" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R119">
         <v>4</v>
@@ -25004,7 +24194,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="120" spans="1:43">
+    <row r="120" spans="1:40">
       <c r="A120">
         <v>18203</v>
       </c>
@@ -25015,10 +24205,10 @@
         <v>3</v>
       </c>
       <c r="D120" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E120" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G120">
         <v>30</v>
@@ -25042,7 +24232,7 @@
         <v>10000000000</v>
       </c>
       <c r="P120" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R120">
         <v>4</v>
@@ -25114,7 +24304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:43">
+    <row r="121" spans="1:40">
       <c r="A121">
         <v>18204</v>
       </c>
@@ -25125,10 +24315,10 @@
         <v>4</v>
       </c>
       <c r="D121" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G121">
         <v>50</v>
@@ -25152,7 +24342,7 @@
         <v>10000000000</v>
       </c>
       <c r="P121" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R121">
         <v>4</v>
@@ -25235,10 +24425,10 @@
         <v>1</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="J122">
         <v>1</v>
@@ -25256,7 +24446,7 @@
         <v>10000000000</v>
       </c>
       <c r="P122" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="R122">
         <v>1</v>
@@ -25339,10 +24529,10 @@
         <v>2</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J123">
         <v>1</v>
@@ -25360,7 +24550,7 @@
         <v>10000000000</v>
       </c>
       <c r="P123" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="R123">
         <v>1</v>
@@ -25443,10 +24633,10 @@
         <v>3</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J124">
         <v>1</v>
@@ -25464,7 +24654,7 @@
         <v>10000000000</v>
       </c>
       <c r="P124" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="R124">
         <v>1</v>
@@ -25547,10 +24737,10 @@
         <v>4</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J125">
         <v>1</v>
@@ -25568,7 +24758,7 @@
         <v>10000000000</v>
       </c>
       <c r="P125" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R125">
         <v>1</v>
@@ -25640,7 +24830,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:43">
+    <row r="126" spans="1:40">
       <c r="A126">
         <v>18301</v>
       </c>
@@ -25651,10 +24841,10 @@
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G126">
         <v>10</v>
@@ -25678,7 +24868,7 @@
         <v>10000000000</v>
       </c>
       <c r="P126" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R126">
         <v>4</v>
@@ -25750,7 +24940,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="127" spans="1:43">
+    <row r="127" spans="1:40">
       <c r="A127">
         <v>18302</v>
       </c>
@@ -25761,10 +24951,10 @@
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G127">
         <v>20</v>
@@ -25788,7 +24978,7 @@
         <v>10000000000</v>
       </c>
       <c r="P127" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R127">
         <v>4</v>
@@ -25860,7 +25050,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="128" spans="1:43">
+    <row r="128" spans="1:40">
       <c r="A128">
         <v>18303</v>
       </c>
@@ -25871,10 +25061,10 @@
         <v>3</v>
       </c>
       <c r="D128" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G128">
         <v>30</v>
@@ -25898,7 +25088,7 @@
         <v>10000000000</v>
       </c>
       <c r="P128" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R128">
         <v>4</v>
@@ -25970,7 +25160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:42">
+    <row r="129" spans="1:40">
       <c r="A129">
         <v>18304</v>
       </c>
@@ -25981,10 +25171,10 @@
         <v>4</v>
       </c>
       <c r="D129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E129" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G129">
         <v>50</v>
@@ -26008,7 +25198,7 @@
         <v>10000000000</v>
       </c>
       <c r="P129" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R129">
         <v>4</v>
@@ -26091,10 +25281,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J130">
         <v>2</v>
@@ -26115,7 +25305,7 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R130">
         <v>1</v>
@@ -26184,7 +25374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:42">
+    <row r="131" spans="1:40">
       <c r="A131">
         <v>18401</v>
       </c>
@@ -26195,10 +25385,10 @@
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -26222,7 +25412,7 @@
         <v>20000</v>
       </c>
       <c r="P131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R131">
         <v>2</v>
@@ -26294,7 +25484,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="132" spans="1:42">
+    <row r="132" spans="1:40">
       <c r="A132">
         <v>18402</v>
       </c>
@@ -26305,10 +25495,10 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G132">
         <v>20</v>
@@ -26332,7 +25522,7 @@
         <v>250000</v>
       </c>
       <c r="P132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="R132">
         <v>2</v>
@@ -26404,7 +25594,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="133" spans="1:42">
+    <row r="133" spans="1:40">
       <c r="A133">
         <v>18403</v>
       </c>
@@ -26415,10 +25605,10 @@
         <v>3</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E133" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G133">
         <v>30</v>
@@ -26442,7 +25632,7 @@
         <v>10000000000</v>
       </c>
       <c r="P133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="R133">
         <v>2</v>
@@ -26514,7 +25704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:42">
+    <row r="134" spans="1:40">
       <c r="A134">
         <v>18404</v>
       </c>
@@ -26525,10 +25715,10 @@
         <v>4</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G134">
         <v>50</v>
@@ -26552,7 +25742,7 @@
         <v>10000000000</v>
       </c>
       <c r="P134" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R134">
         <v>2</v>
@@ -26635,10 +25825,10 @@
         <v>1</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
@@ -26659,7 +25849,7 @@
         <v>10000000000</v>
       </c>
       <c r="P135" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="R135">
         <v>8</v>
@@ -26739,10 +25929,10 @@
         <v>1</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J136">
         <v>2</v>
@@ -26763,7 +25953,7 @@
         <v>100</v>
       </c>
       <c r="P136" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R136">
         <v>1</v>
@@ -26843,10 +26033,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G137">
         <v>10</v>
@@ -26872,8 +26062,8 @@
       <c r="O137">
         <v>999</v>
       </c>
-      <c r="P137" s="6" t="s">
-        <v>144</v>
+      <c r="P137" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="R137">
         <v>2</v>
@@ -26953,10 +26143,10 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G138">
         <v>20</v>
@@ -26982,8 +26172,8 @@
       <c r="O138">
         <v>9999</v>
       </c>
-      <c r="P138" s="6" t="s">
-        <v>145</v>
+      <c r="P138" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="R138">
         <v>2</v>
@@ -27063,10 +26253,10 @@
         <v>3</v>
       </c>
       <c r="D139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E139" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G139">
         <v>30</v>
@@ -27092,7 +26282,7 @@
       <c r="O139">
         <v>99999</v>
       </c>
-      <c r="P139" s="6" t="s">
+      <c r="P139" s="4" t="s">
         <v>146</v>
       </c>
       <c r="R139">
@@ -27173,10 +26363,10 @@
         <v>4</v>
       </c>
       <c r="D140" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E140" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G140">
         <v>50</v>
@@ -27202,8 +26392,8 @@
       <c r="O140">
         <v>999999</v>
       </c>
-      <c r="P140" s="6" t="s">
-        <v>147</v>
+      <c r="P140" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="R140">
         <v>2</v>
@@ -27283,10 +26473,10 @@
         <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="G141">
         <v>80</v>
@@ -27312,8 +26502,8 @@
       <c r="O141">
         <v>9999999</v>
       </c>
-      <c r="P141" s="6" t="s">
-        <v>148</v>
+      <c r="P141" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="R141">
         <v>2</v>
@@ -27382,7 +26572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:42">
+    <row r="142" spans="1:40">
       <c r="A142">
         <v>20301</v>
       </c>
@@ -27396,7 +26586,7 @@
         <v>21</v>
       </c>
       <c r="E142" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G142">
         <v>10</v>
@@ -27422,8 +26612,8 @@
       <c r="O142">
         <v>999</v>
       </c>
-      <c r="P142" s="6" t="s">
-        <v>144</v>
+      <c r="P142" s="4" t="s">
+        <v>142</v>
       </c>
       <c r="R142">
         <v>1</v>
@@ -27495,7 +26685,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="143" spans="1:42">
+    <row r="143" spans="1:40">
       <c r="A143">
         <v>20302</v>
       </c>
@@ -27509,7 +26699,7 @@
         <v>21</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G143">
         <v>20</v>
@@ -27535,8 +26725,8 @@
       <c r="O143">
         <v>9999</v>
       </c>
-      <c r="P143" s="6" t="s">
-        <v>145</v>
+      <c r="P143" s="4" t="s">
+        <v>144</v>
       </c>
       <c r="R143">
         <v>1</v>
@@ -27608,7 +26798,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="144" spans="1:42">
+    <row r="144" spans="1:40">
       <c r="A144">
         <v>20303</v>
       </c>
@@ -27622,7 +26812,7 @@
         <v>21</v>
       </c>
       <c r="E144" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G144">
         <v>30</v>
@@ -27648,7 +26838,7 @@
       <c r="O144">
         <v>99999</v>
       </c>
-      <c r="P144" s="6" t="s">
+      <c r="P144" s="4" t="s">
         <v>146</v>
       </c>
       <c r="R144">
@@ -27735,7 +26925,7 @@
         <v>21</v>
       </c>
       <c r="E145" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G145">
         <v>50</v>
@@ -27761,8 +26951,8 @@
       <c r="O145">
         <v>999999</v>
       </c>
-      <c r="P145" s="6" t="s">
-        <v>147</v>
+      <c r="P145" s="4" t="s">
+        <v>148</v>
       </c>
       <c r="R145">
         <v>1</v>
@@ -27848,7 +27038,7 @@
         <v>21</v>
       </c>
       <c r="E146" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="G146">
         <v>50</v>
@@ -27874,8 +27064,8 @@
       <c r="O146">
         <v>9999999</v>
       </c>
-      <c r="P146" s="6" t="s">
-        <v>148</v>
+      <c r="P146" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="R146">
         <v>1</v>
@@ -27957,11 +27147,11 @@
       <c r="C147">
         <v>1</v>
       </c>
-      <c r="D147" s="6" t="s">
-        <v>149</v>
+      <c r="D147" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G147">
         <v>10</v>
@@ -27985,7 +27175,7 @@
         <v>20000</v>
       </c>
       <c r="P147" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="R147">
         <v>2</v>
@@ -28067,11 +27257,11 @@
       <c r="C148">
         <v>2</v>
       </c>
-      <c r="D148" s="6" t="s">
-        <v>149</v>
+      <c r="D148" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G148">
         <v>10</v>
@@ -28095,7 +27285,7 @@
         <v>250000</v>
       </c>
       <c r="P148" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="R148">
         <v>2</v>
@@ -28177,11 +27367,11 @@
       <c r="C149">
         <v>3</v>
       </c>
-      <c r="D149" s="6" t="s">
-        <v>149</v>
+      <c r="D149" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E149" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G149">
         <v>10</v>
@@ -28205,7 +27395,7 @@
         <v>10000000000</v>
       </c>
       <c r="P149" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="R149">
         <v>2</v>
@@ -28287,11 +27477,11 @@
       <c r="C150">
         <v>4</v>
       </c>
-      <c r="D150" s="6" t="s">
-        <v>149</v>
+      <c r="D150" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E150" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G150">
         <v>10</v>
@@ -28315,7 +27505,7 @@
         <v>10000000000</v>
       </c>
       <c r="P150" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="R150">
         <v>2</v>
@@ -28388,9 +27578,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
